--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>1月7日-11日，武汉“两会”；1月8日-18日，湖北省“二会”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市宣部封城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +173,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J16" si="1">G5-H5-I5</f>
+        <f t="shared" ref="J5:J15" si="1">G5-H5-I5</f>
         <v>33</v>
       </c>
       <c r="K5">
@@ -1029,16 +1034,76 @@
       <c r="B16" s="1">
         <v>43853</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>495</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>441</v>
+      </c>
+      <c r="K16">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>43854</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>572</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>502</v>
+      </c>
+      <c r="K17">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1046,7 +1111,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1054,7 +1119,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1062,7 +1127,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1070,7 +1135,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1078,7 +1143,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1086,7 +1151,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1094,7 +1159,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1102,7 +1167,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1110,32 +1175,32 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1163,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,57 +1249,65 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="5">
+        <v>43853</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>43849</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>43841</v>
+        <v>43849</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>43835</v>
+        <v>43841</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43833</v>
+        <v>43835</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>44196</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dR/dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累计病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>武汉市宣部封城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dR/dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,7 +476,7 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -486,39 +486,39 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -547,8 +547,12 @@
         <f>G4-H4-I4</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <f>(H5+I5)-(H4-I4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -564,10 +568,6 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F15" si="0">(D5+E5)-(D4+E4)</f>
-        <v>-3</v>
-      </c>
       <c r="G5">
         <v>41</v>
       </c>
@@ -578,19 +578,23 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J15" si="1">G5-H5-I5</f>
+        <f t="shared" ref="J5:J15" si="0">G5-H5-I5</f>
         <v>33</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K15" si="2">J5-J4</f>
+        <f t="shared" ref="K5:K15" si="1">J5-J4</f>
         <v>-1</v>
       </c>
       <c r="L5">
         <f>C5-K5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <f t="shared" ref="M5:M17" si="2">(H6+I6)-(H5-I5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -606,10 +610,6 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
       <c r="G6">
         <v>41</v>
       </c>
@@ -620,19 +620,23 @@
         <v>7</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L15" si="3">C6-K6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -648,10 +652,6 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>41</v>
       </c>
@@ -662,19 +662,23 @@
         <v>7</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -690,10 +694,6 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G8">
         <v>41</v>
       </c>
@@ -704,19 +704,23 @@
         <v>12</v>
       </c>
       <c r="J8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -731,10 +735,6 @@
       </c>
       <c r="E9">
         <v>3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-3</v>
       </c>
       <c r="G9">
         <f>C9+G8</f>
@@ -749,19 +749,23 @@
         <v>15</v>
       </c>
       <c r="J9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -776,10 +780,6 @@
       </c>
       <c r="E10">
         <v>4</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:I15" si="4">C10+G9</f>
@@ -794,19 +794,23 @@
         <v>19</v>
       </c>
       <c r="J10">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -821,10 +825,6 @@
       </c>
       <c r="E11">
         <v>5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
@@ -839,19 +839,23 @@
         <v>24</v>
       </c>
       <c r="J11">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -866,10 +870,6 @@
       </c>
       <c r="E12">
         <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-5</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -882,19 +882,23 @@
         <v>24</v>
       </c>
       <c r="J12">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -909,10 +913,6 @@
       </c>
       <c r="E13">
         <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
@@ -925,19 +925,23 @@
         <v>25</v>
       </c>
       <c r="J13">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -952,10 +956,6 @@
       </c>
       <c r="E14">
         <v>3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -970,19 +970,23 @@
         <v>28</v>
       </c>
       <c r="J14">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -997,10 +1001,6 @@
       </c>
       <c r="E15">
         <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -1015,19 +1015,23 @@
         <v>28</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1043,9 +1047,6 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
         <v>495</v>
       </c>
@@ -1064,8 +1065,12 @@
       <c r="L16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1081,9 +1086,6 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
       <c r="G17">
         <v>572</v>
       </c>
@@ -1102,8 +1104,12 @@
       <c r="L17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>43855</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1175,32 +1181,32 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1242,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1253,17 +1259,17 @@
         <v>43853</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1271,7 +1277,7 @@
         <v>43849</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1279,7 +1285,7 @@
         <v>43841</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1287,7 +1293,7 @@
         <v>43835</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1295,7 +1301,7 @@
         <v>43833</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1303,12 +1309,12 @@
         <v>44196</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -106,11 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉市宣部封城</t>
+    <t>dR/dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dR/dt</t>
+    <t>武汉市宣部从早10点开始封城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +173,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,7 +471,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -505,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -547,10 +550,6 @@
         <f>G4-H4-I4</f>
         <v>34</v>
       </c>
-      <c r="M4">
-        <f>(H5+I5)-(H4-I4)</f>
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -590,8 +589,8 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M17" si="2">(H6+I6)-(H5-I5)</f>
-        <v>14</v>
+        <f>(H5+I5)-(H4+I4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -628,12 +627,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="3">C6-K6</f>
+        <f t="shared" ref="L6:L15" si="2">C6-K6</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="M6:M18" si="3">(H6+I6)-(H5+I5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -670,12 +669,12 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -712,12 +711,12 @@
         <v>-6</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -757,12 +756,12 @@
         <v>1</v>
       </c>
       <c r="L9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>3</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -802,12 +801,12 @@
         <v>13</v>
       </c>
       <c r="L10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>4</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -847,12 +846,12 @@
         <v>53</v>
       </c>
       <c r="L11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -890,12 +889,12 @@
         <v>76</v>
       </c>
       <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -933,12 +932,12 @@
         <v>57</v>
       </c>
       <c r="L13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>3</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -978,12 +977,12 @@
         <v>99</v>
       </c>
       <c r="L14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>6</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1023,12 +1022,12 @@
         <v>54</v>
       </c>
       <c r="L15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>8</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1066,8 +1065,8 @@
         <v>9</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -1105,8 +1104,8 @@
         <v>16</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>-6</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -1115,6 +1114,43 @@
       </c>
       <c r="B18" s="1">
         <v>43855</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f>G17+C18</f>
+        <v>618</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:I18" si="5">H17+D18</f>
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" ref="J18" si="6">G18-H18-I18</f>
+        <v>533</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="7">J18-J17</f>
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18" si="8">C18-K18</f>
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -1237,7 +1273,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1295,7 @@
         <v>43853</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,18 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dI/dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增病例-dI/dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/11/2020是武汉卫健委最早连续发布的细分数据（于1月12日发布)， 在1月11日的通告中称自1月3日起没有新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +91,6 @@
   </si>
   <si>
     <t>1月7日-11日，武汉“两会”；1月8日-18日，湖北省“二会”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dR/dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,7 +463,7 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -498,30 +482,18 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -546,12 +518,8 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4">
-        <f>G4-H4-I4</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -576,24 +544,8 @@
       <c r="I5">
         <v>7</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J15" si="0">G5-H5-I5</f>
-        <v>33</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K15" si="1">J5-J4</f>
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <f>C5-K5</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f>(H5+I5)-(H4+I4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -618,24 +570,8 @@
       <c r="I6">
         <v>7</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="2">C6-K6</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M18" si="3">(H6+I6)-(H5+I5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -660,24 +596,8 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -702,24 +622,8 @@
       <c r="I8">
         <v>12</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -747,24 +651,8 @@
         <f>E9+I8</f>
         <v>15</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -781,35 +669,19 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:I15" si="4">C10+G9</f>
+        <f t="shared" ref="G10:I15" si="0">C10+G9</f>
         <v>62</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -826,35 +698,19 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -871,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="H12">
@@ -880,24 +736,8 @@
       <c r="I12">
         <v>24</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -914,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>258</v>
       </c>
       <c r="H13">
@@ -923,24 +763,8 @@
       <c r="I13">
         <v>25</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -957,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>363</v>
       </c>
       <c r="H14">
@@ -968,24 +792,8 @@
         <f>I13+E14</f>
         <v>28</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>326</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1002,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>425</v>
       </c>
       <c r="H15">
@@ -1013,24 +821,8 @@
         <f>I14+E15</f>
         <v>28</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1055,21 +847,8 @@
       <c r="I16">
         <v>31</v>
       </c>
-      <c r="J16">
-        <v>441</v>
-      </c>
-      <c r="K16">
-        <v>61</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1094,21 +873,8 @@
       <c r="I17">
         <v>32</v>
       </c>
-      <c r="J17">
-        <v>502</v>
-      </c>
-      <c r="K17">
-        <v>61</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1129,31 +895,16 @@
         <v>618</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:I18" si="5">H17+D18</f>
+        <f t="shared" ref="H18:I18" si="1">H17+D18</f>
         <v>45</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J18" s="6">
-        <f t="shared" ref="J18" si="6">G18-H18-I18</f>
-        <v>533</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18" si="7">J18-J17</f>
-        <v>31</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="8">C18-K18</f>
-        <v>15</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1161,7 +912,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1169,7 +920,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1177,7 +928,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1185,7 +936,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1193,7 +944,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1201,7 +952,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1209,7 +960,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1217,32 +968,32 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1284,7 +1035,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1295,17 +1046,17 @@
         <v>43853</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1313,7 +1064,7 @@
         <v>43849</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1321,7 +1072,7 @@
         <v>43841</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1329,7 +1080,7 @@
         <v>43835</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1337,7 +1088,7 @@
         <v>43833</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1345,12 +1096,12 @@
         <v>44196</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="数据" sheetId="1" r:id="rId1"/>
-    <sheet name="说明" sheetId="2" r:id="rId2"/>
+    <sheet name="wuhan" sheetId="1" r:id="rId1"/>
+    <sheet name="hubei" sheetId="3" r:id="rId2"/>
+    <sheet name="china" sheetId="4" r:id="rId3"/>
+    <sheet name="说明" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +97,53 @@
   </si>
   <si>
     <t>武汉市宣部从早10点开始封城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增病例</t>
+  </si>
+  <si>
+    <t>死亡</t>
+  </si>
+  <si>
+    <t>治愈</t>
+  </si>
+  <si>
+    <t>医护</t>
+  </si>
+  <si>
+    <t>累计病例</t>
+  </si>
+  <si>
+    <t>累计死亡</t>
+  </si>
+  <si>
+    <t>累计治愈</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>共接诊</t>
+  </si>
+  <si>
+    <t>留观</t>
+  </si>
+  <si>
+    <t>数据来自湖北卫健委通告： http://wjw.hubei.gov.cn/bmdt/ztzl/fkxxgzbdgrfyyq/xxfb/</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>数据来自国家卫健委通告： http://www.nhc.gov.cn/xcs/yqfkdt/gzbd_index.shtml, 最早连续发布日期委1/21/2020， 发布1/20/2020的疫情通告</t>
+  </si>
+  <si>
+    <t>发热门诊接诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留观</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +209,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,7 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,7 +518,7 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -482,18 +537,24 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -519,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -545,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -571,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -597,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -623,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -652,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -681,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -710,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -737,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -764,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -793,7 +854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -822,7 +883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -848,7 +909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -874,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -902,41 +963,142 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>43856</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>G18+C19</f>
+        <v>698</v>
+      </c>
+      <c r="H19">
+        <f>H18+D19</f>
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <f>I18+E19</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>43857</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>892</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>G19+C20</f>
+        <v>1590</v>
+      </c>
+      <c r="H20">
+        <f>H19+D20</f>
+        <v>85</v>
+      </c>
+      <c r="I20" s="7">
+        <f>I19+E20</f>
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>10261</v>
+      </c>
+      <c r="K20">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>43858</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>315</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>G20+C21</f>
+        <v>1905</v>
+      </c>
+      <c r="H21">
+        <f>H20+D21</f>
+        <v>104</v>
+      </c>
+      <c r="I21" s="7">
+        <f>I20+E21</f>
+        <v>42</v>
+      </c>
+      <c r="J21">
+        <v>10702</v>
+      </c>
+      <c r="K21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>43859</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>356</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <f>G21+C22</f>
+        <v>2261</v>
+      </c>
+      <c r="H22">
+        <f>H21+D22</f>
+        <v>129</v>
+      </c>
+      <c r="I22">
+        <f>I21+E22</f>
+        <v>49</v>
+      </c>
+      <c r="J22">
+        <v>12263</v>
+      </c>
+      <c r="K22">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -944,7 +1106,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -952,7 +1114,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -960,7 +1122,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -968,32 +1130,32 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1020,6 +1182,848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43850</v>
+      </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>270</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43851</v>
+      </c>
+      <c r="C14">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>375</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43852</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>444</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43853</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>549</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43854</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>729</v>
+      </c>
+      <c r="H17">
+        <v>39</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43855</v>
+      </c>
+      <c r="C18">
+        <v>323</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1052</v>
+      </c>
+      <c r="H18">
+        <v>52</v>
+      </c>
+      <c r="I18">
+        <v>42</v>
+      </c>
+      <c r="J18">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43856</v>
+      </c>
+      <c r="C19">
+        <v>371</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1423</v>
+      </c>
+      <c r="H19">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>44</v>
+      </c>
+      <c r="J19">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43857</v>
+      </c>
+      <c r="C20">
+        <v>1291</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2714</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>2567</v>
+      </c>
+      <c r="K20">
+        <v>31934</v>
+      </c>
+      <c r="L20">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43858</v>
+      </c>
+      <c r="C21">
+        <v>840</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>3554</v>
+      </c>
+      <c r="H21">
+        <v>125</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21">
+        <v>3349</v>
+      </c>
+      <c r="K21">
+        <v>31639</v>
+      </c>
+      <c r="L21">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C22">
+        <v>1032</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>4586</v>
+      </c>
+      <c r="H22">
+        <v>162</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>4334</v>
+      </c>
+      <c r="K22">
+        <v>32309</v>
+      </c>
+      <c r="L22">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="6">
+        <v>43841</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="6">
+        <v>43842</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="6">
+        <v>43843</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="6">
+        <v>43844</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="6">
+        <v>43845</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="6">
+        <v>43846</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="6">
+        <v>43847</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="6">
+        <v>43848</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="6">
+        <v>43849</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="6">
+        <v>43850</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>291</v>
+      </c>
+      <c r="L13">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="6">
+        <v>43851</v>
+      </c>
+      <c r="C14">
+        <v>149</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>440</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="6">
+        <v>43852</v>
+      </c>
+      <c r="C15">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>571</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="6">
+        <v>43853</v>
+      </c>
+      <c r="C16">
+        <v>259</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>830</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="6">
+        <v>43854</v>
+      </c>
+      <c r="C17">
+        <v>444</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1287</v>
+      </c>
+      <c r="H17">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="6">
+        <v>43855</v>
+      </c>
+      <c r="C18">
+        <v>688</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>1975</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="6">
+        <v>43856</v>
+      </c>
+      <c r="C19">
+        <v>769</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2744</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="6">
+        <v>43857</v>
+      </c>
+      <c r="C20">
+        <v>1771</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>4515</v>
+      </c>
+      <c r="H20">
+        <v>106</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="6">
+        <v>43858</v>
+      </c>
+      <c r="C21">
+        <v>1459</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>5974</v>
+      </c>
+      <c r="H21">
+        <v>132</v>
+      </c>
+      <c r="I21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="6">
+        <v>43859</v>
+      </c>
+      <c r="C22">
+        <v>1737</v>
+      </c>
+      <c r="D22">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>7711</v>
+      </c>
+      <c r="H22">
+        <v>170</v>
+      </c>
+      <c r="I22">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="6">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="6">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="6">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="6">
+        <v>43863</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,22 @@
   </si>
   <si>
     <t>留观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有疑似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -220,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -509,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,11 +1001,11 @@
         <v>698</v>
       </c>
       <c r="H19">
-        <f>H18+D19</f>
+        <f t="shared" ref="H19:I22" si="2">H18+D19</f>
         <v>63</v>
       </c>
       <c r="I19">
-        <f>I18+E19</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
@@ -1014,11 +1030,11 @@
         <v>1590</v>
       </c>
       <c r="H20">
-        <f>H19+D20</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="I20" s="7">
-        <f>I19+E20</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="J20">
@@ -1049,11 +1065,11 @@
         <v>1905</v>
       </c>
       <c r="H21">
-        <f>H20+D21</f>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="I21" s="7">
-        <f>I20+E21</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="J21">
@@ -1084,11 +1100,11 @@
         <v>2261</v>
       </c>
       <c r="H22">
-        <f>H21+D22</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="I22">
-        <f>I21+E22</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="J22">
@@ -1105,6 +1121,24 @@
       <c r="B23" s="1">
         <v>43860</v>
       </c>
+      <c r="C23">
+        <v>378</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>2639</v>
+      </c>
+      <c r="H23">
+        <v>159</v>
+      </c>
+      <c r="I23">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -1113,6 +1147,24 @@
       <c r="B24" s="1">
         <v>43861</v>
       </c>
+      <c r="C24">
+        <v>576</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>3215</v>
+      </c>
+      <c r="H24">
+        <v>192</v>
+      </c>
+      <c r="I24">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -1121,6 +1173,24 @@
       <c r="B25" s="1">
         <v>43862</v>
       </c>
+      <c r="C25">
+        <v>894</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>4109</v>
+      </c>
+      <c r="H25">
+        <v>224</v>
+      </c>
+      <c r="I25">
+        <v>138</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -1128,6 +1198,24 @@
       </c>
       <c r="B26" s="1">
         <v>43863</v>
+      </c>
+      <c r="C26">
+        <v>1033</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>5142</v>
+      </c>
+      <c r="H26">
+        <v>265</v>
+      </c>
+      <c r="I26">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1185,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,9 +1304,6 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
@@ -1336,9 +1421,6 @@
       <c r="I13">
         <v>25</v>
       </c>
-      <c r="J13">
-        <v>239</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -1365,9 +1447,6 @@
       <c r="I14">
         <v>28</v>
       </c>
-      <c r="J14">
-        <v>338</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -1394,9 +1473,6 @@
       <c r="I15">
         <v>28</v>
       </c>
-      <c r="J15">
-        <v>399</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -1423,9 +1499,6 @@
       <c r="I16">
         <v>31</v>
       </c>
-      <c r="J16">
-        <v>494</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -1452,9 +1525,6 @@
       <c r="I17">
         <v>32</v>
       </c>
-      <c r="J17">
-        <v>658</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -1481,9 +1551,6 @@
       <c r="I18">
         <v>42</v>
       </c>
-      <c r="J18">
-        <v>958</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -1510,9 +1577,6 @@
       <c r="I19">
         <v>44</v>
       </c>
-      <c r="J19">
-        <v>1303</v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -1539,9 +1603,6 @@
       <c r="I20">
         <v>47</v>
       </c>
-      <c r="J20">
-        <v>2567</v>
-      </c>
       <c r="K20">
         <v>31934</v>
       </c>
@@ -1574,9 +1635,6 @@
       <c r="I21">
         <v>80</v>
       </c>
-      <c r="J21">
-        <v>3349</v>
-      </c>
       <c r="K21">
         <v>31639</v>
       </c>
@@ -1609,9 +1667,6 @@
       <c r="I22">
         <v>90</v>
       </c>
-      <c r="J22">
-        <v>4334</v>
-      </c>
       <c r="K22">
         <v>32309</v>
       </c>
@@ -1626,6 +1681,24 @@
       <c r="B23" s="1">
         <v>43860</v>
       </c>
+      <c r="C23">
+        <v>1220</v>
+      </c>
+      <c r="D23">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>5806</v>
+      </c>
+      <c r="H23">
+        <v>204</v>
+      </c>
+      <c r="I23">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -1634,6 +1707,24 @@
       <c r="B24" s="1">
         <v>43861</v>
       </c>
+      <c r="C24">
+        <v>1347</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>7153</v>
+      </c>
+      <c r="H24">
+        <v>249</v>
+      </c>
+      <c r="I24">
+        <v>166</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -1642,6 +1733,24 @@
       <c r="B25" s="1">
         <v>43862</v>
       </c>
+      <c r="C25">
+        <v>1921</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>49</v>
+      </c>
+      <c r="G25">
+        <v>9074</v>
+      </c>
+      <c r="H25">
+        <v>294</v>
+      </c>
+      <c r="I25">
+        <v>215</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -1649,6 +1758,24 @@
       </c>
       <c r="B26" s="1">
         <v>43863</v>
+      </c>
+      <c r="C26">
+        <v>2103</v>
+      </c>
+      <c r="D26">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>11177</v>
+      </c>
+      <c r="H26">
+        <v>350</v>
+      </c>
+      <c r="I26">
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -1674,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L26"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1685,7 +1812,7 @@
     <col min="2" max="2" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -1695,111 +1822,123 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
       <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="6">
         <v>43841</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="6">
         <v>43842</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
         <v>43843</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>43844</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>43845</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>43846</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>43847</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>43848</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <v>43849</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <v>43850</v>
       </c>
       <c r="C13">
         <v>77</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>291</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>43851</v>
       </c>
@@ -1809,17 +1948,20 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>440</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>43852</v>
       </c>
@@ -1829,14 +1971,26 @@
       <c r="D15">
         <v>8</v>
       </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
       <c r="G15">
+        <v>257</v>
+      </c>
+      <c r="H15">
         <v>571</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>95</v>
+      </c>
+      <c r="L15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <v>43853</v>
       </c>
@@ -1850,16 +2004,25 @@
         <v>6</v>
       </c>
       <c r="G16">
+        <v>680</v>
+      </c>
+      <c r="H16">
         <v>830</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>25</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>177</v>
+      </c>
+      <c r="L16">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>43854</v>
       </c>
@@ -1873,16 +2036,25 @@
         <v>3</v>
       </c>
       <c r="G17">
+        <v>1118</v>
+      </c>
+      <c r="H17">
         <v>1287</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>41</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>237</v>
+      </c>
+      <c r="L17">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="6">
         <v>43855</v>
       </c>
@@ -1895,17 +2067,29 @@
       <c r="E18">
         <v>11</v>
       </c>
+      <c r="F18">
+        <v>87</v>
+      </c>
       <c r="G18">
+        <v>1309</v>
+      </c>
+      <c r="H18">
         <v>1975</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>324</v>
+      </c>
+      <c r="L18">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="6">
         <v>43856</v>
       </c>
@@ -1918,17 +2102,29 @@
       <c r="E19">
         <v>2</v>
       </c>
+      <c r="F19">
+        <v>137</v>
+      </c>
       <c r="G19">
+        <v>3806</v>
+      </c>
+      <c r="H19">
         <v>2744</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>80</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>461</v>
+      </c>
+      <c r="L19">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="6">
         <v>43857</v>
       </c>
@@ -1941,17 +2137,29 @@
       <c r="E20">
         <v>9</v>
       </c>
+      <c r="F20">
+        <v>515</v>
+      </c>
       <c r="G20">
+        <v>2077</v>
+      </c>
+      <c r="H20">
         <v>4515</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>106</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <v>976</v>
+      </c>
+      <c r="L20">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>43858</v>
       </c>
@@ -1964,17 +2172,29 @@
       <c r="E21">
         <v>43</v>
       </c>
+      <c r="F21">
+        <v>263</v>
+      </c>
       <c r="G21">
+        <v>3248</v>
+      </c>
+      <c r="H21">
         <v>5974</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>132</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>1239</v>
+      </c>
+      <c r="L21">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="6">
         <v>43859</v>
       </c>
@@ -1987,34 +2207,166 @@
       <c r="E22">
         <v>21</v>
       </c>
+      <c r="F22">
+        <v>131</v>
+      </c>
       <c r="G22">
+        <v>4148</v>
+      </c>
+      <c r="H22">
         <v>7711</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>170</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>1370</v>
+      </c>
+      <c r="L22">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="6">
         <v>43860</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>1982</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>157</v>
+      </c>
+      <c r="G23">
+        <v>4812</v>
+      </c>
+      <c r="H23">
+        <v>9692</v>
+      </c>
+      <c r="I23">
+        <v>213</v>
+      </c>
+      <c r="J23">
+        <v>171</v>
+      </c>
+      <c r="K23">
+        <v>1527</v>
+      </c>
+      <c r="L23">
+        <v>15238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="6">
         <v>43861</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C24">
+        <v>2102</v>
+      </c>
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>72</v>
+      </c>
+      <c r="F24">
+        <v>268</v>
+      </c>
+      <c r="G24">
+        <v>5019</v>
+      </c>
+      <c r="H24">
+        <v>11791</v>
+      </c>
+      <c r="I24">
+        <v>259</v>
+      </c>
+      <c r="J24">
+        <v>254</v>
+      </c>
+      <c r="K24">
+        <v>1795</v>
+      </c>
+      <c r="L24">
+        <v>17988</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="6">
         <v>43862</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <v>2590</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>315</v>
+      </c>
+      <c r="G25">
+        <v>4562</v>
+      </c>
+      <c r="H25">
+        <v>14380</v>
+      </c>
+      <c r="I25">
+        <v>304</v>
+      </c>
+      <c r="J25">
+        <v>328</v>
+      </c>
+      <c r="K25">
+        <v>2110</v>
+      </c>
+      <c r="L25">
+        <v>19544</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="6">
         <v>43863</v>
+      </c>
+      <c r="C26">
+        <v>2829</v>
+      </c>
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="F26">
+        <v>186</v>
+      </c>
+      <c r="G26">
+        <v>5173</v>
+      </c>
+      <c r="H26">
+        <v>17205</v>
+      </c>
+      <c r="I26">
+        <v>361</v>
+      </c>
+      <c r="J26">
+        <v>475</v>
+      </c>
+      <c r="K26">
+        <v>2296</v>
+      </c>
+      <c r="L26">
+        <v>21558</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hfwang</author>
+  </authors>
+  <commentList>
+    <comment ref="K22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+湖北省卫健委最后一次发布该数据
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,9 +154,6 @@
   </si>
   <si>
     <t>累计治愈</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>共接诊</t>
@@ -170,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +232,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,8 +289,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1222,45 +1267,144 @@
       <c r="A27">
         <v>23</v>
       </c>
+      <c r="B27" s="1">
+        <v>43864</v>
+      </c>
+      <c r="C27">
+        <v>1242</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>79</v>
+      </c>
+      <c r="G27">
+        <v>6384</v>
+      </c>
+      <c r="H27">
+        <v>313</v>
+      </c>
+      <c r="I27">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
+      <c r="B28" s="1">
+        <v>43865</v>
+      </c>
+      <c r="C28">
+        <v>1967</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>8351</v>
+      </c>
+      <c r="H28">
+        <v>362</v>
+      </c>
+      <c r="I28">
+        <v>335</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
+      <c r="B29" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C29">
+        <v>1766</v>
+      </c>
+      <c r="D29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="G29">
+        <v>10117</v>
+      </c>
+      <c r="H29">
+        <v>414</v>
+      </c>
+      <c r="I29">
+        <v>398</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
+      <c r="B30" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C30">
+        <v>1501</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>103</v>
+      </c>
+      <c r="G30">
+        <v>11618</v>
+      </c>
+      <c r="H30">
+        <v>478</v>
+      </c>
+      <c r="I30">
+        <v>501</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
+      <c r="B31" s="1">
+        <v>43868</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43872</v>
       </c>
     </row>
   </sheetData>
@@ -1270,11 +1414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,20 +1449,20 @@
         <v>24</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -1782,29 +1926,127 @@
       <c r="A27">
         <v>23</v>
       </c>
+      <c r="B27" s="1">
+        <v>43864</v>
+      </c>
+      <c r="C27">
+        <v>2345</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>101</v>
+      </c>
+      <c r="G27">
+        <v>13522</v>
+      </c>
+      <c r="H27">
+        <v>414</v>
+      </c>
+      <c r="I27">
+        <v>396</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
+      <c r="B28" s="1">
+        <v>43865</v>
+      </c>
+      <c r="C28">
+        <v>3156</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>125</v>
+      </c>
+      <c r="G28">
+        <v>16678</v>
+      </c>
+      <c r="H28">
+        <v>479</v>
+      </c>
+      <c r="I28">
+        <v>520</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
+      <c r="B29" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C29">
+        <v>2987</v>
+      </c>
+      <c r="D29">
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>113</v>
+      </c>
+      <c r="G29">
+        <v>19665</v>
+      </c>
+      <c r="H29">
+        <v>549</v>
+      </c>
+      <c r="I29">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C30">
+        <v>2447</v>
+      </c>
+      <c r="D30">
+        <v>69</v>
+      </c>
+      <c r="E30">
+        <v>184</v>
+      </c>
+      <c r="G30">
+        <v>22112</v>
+      </c>
+      <c r="H30">
+        <v>618</v>
+      </c>
+      <c r="I30">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43868</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O26"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1812,7 +2054,7 @@
     <col min="2" max="2" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>18</v>
       </c>
@@ -1823,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -1838,93 +2080,63 @@
         <v>24</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="6">
         <v>43841</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="6">
         <v>43842</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
         <v>43843</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>43844</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>43845</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>43846</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>43847</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>43848</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="6">
         <v>43849</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="6">
         <v>43850</v>
       </c>
@@ -1934,11 +2146,8 @@
       <c r="H13">
         <v>291</v>
       </c>
-      <c r="O13">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>43851</v>
       </c>
@@ -1961,7 +2170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="6">
         <v>43852</v>
       </c>
@@ -1990,7 +2199,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="6">
         <v>43853</v>
       </c>
@@ -2367,6 +2576,151 @@
       </c>
       <c r="L26">
         <v>21558</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" s="6">
+        <v>43864</v>
+      </c>
+      <c r="C27">
+        <v>3235</v>
+      </c>
+      <c r="D27">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>157</v>
+      </c>
+      <c r="F27">
+        <v>492</v>
+      </c>
+      <c r="G27">
+        <v>5072</v>
+      </c>
+      <c r="H27">
+        <v>20438</v>
+      </c>
+      <c r="I27">
+        <v>425</v>
+      </c>
+      <c r="J27">
+        <v>632</v>
+      </c>
+      <c r="K27">
+        <v>2788</v>
+      </c>
+      <c r="L27">
+        <v>23214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="6">
+        <v>43865</v>
+      </c>
+      <c r="C28">
+        <v>3887</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>262</v>
+      </c>
+      <c r="F28">
+        <v>431</v>
+      </c>
+      <c r="G28">
+        <v>3971</v>
+      </c>
+      <c r="H28">
+        <v>24324</v>
+      </c>
+      <c r="I28">
+        <v>490</v>
+      </c>
+      <c r="J28">
+        <v>892</v>
+      </c>
+      <c r="K28">
+        <v>3219</v>
+      </c>
+      <c r="L28">
+        <v>23260</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="6">
+        <v>43866</v>
+      </c>
+      <c r="C29">
+        <v>3694</v>
+      </c>
+      <c r="D29">
+        <v>73</v>
+      </c>
+      <c r="E29">
+        <v>261</v>
+      </c>
+      <c r="F29">
+        <v>640</v>
+      </c>
+      <c r="G29">
+        <v>5328</v>
+      </c>
+      <c r="H29">
+        <v>28018</v>
+      </c>
+      <c r="I29">
+        <v>563</v>
+      </c>
+      <c r="J29">
+        <v>1153</v>
+      </c>
+      <c r="K29">
+        <v>3859</v>
+      </c>
+      <c r="L29">
+        <v>24702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="6">
+        <v>43867</v>
+      </c>
+      <c r="C30">
+        <v>3143</v>
+      </c>
+      <c r="D30">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>387</v>
+      </c>
+      <c r="F30">
+        <v>962</v>
+      </c>
+      <c r="G30">
+        <v>4833</v>
+      </c>
+      <c r="H30">
+        <v>31161</v>
+      </c>
+      <c r="I30">
+        <v>636</v>
+      </c>
+      <c r="J30">
+        <v>1540</v>
+      </c>
+      <c r="K30">
+        <v>4821</v>
+      </c>
+      <c r="L30">
+        <v>26359</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="6">
+        <v>43868</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -32,28 +32,1183 @@
     <author>hfwang</author>
   </authors>
   <commentList>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="E36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>治愈不细分是否临床确诊</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>hfwang:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">没有发布治愈的城市细分
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北卫健委称</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>截至</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2020</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>年</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时，武汉市、黄冈市、荆州市、咸宁市、荆门市、鄂州市对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时确诊病例（含临床诊断病例）数进行了调整核销</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">“
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>国家卫健委公布数据，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和前日累加滞后有缺口，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>国家卫健委称</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>“</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>108”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有缺口，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>从昨天累计治愈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>新增，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>差236</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北卫健委不再发布临床死亡</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hfwang</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+湖北的新增重症是现有重症+危重症减去昨天重症+危重症
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北卫健委只发布过一次，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>之后再没有发布医护感染情况</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 湖北省卫健委最后一次发布该数据
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">国家卫健委第一次公布湖北省新增疑似病例
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+国家卫健委首次公布湖北省新增重症
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">湖北改变确诊标准
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">http://wjw.hubei.gov.cn/bmdt/ztzl/fkxxgzbdgrfyyq/xxfb/202002/t20200213_2025580.shtml
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">湖北卫健委首次发布临床确诊
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">首次将临床确诊纳入确诊总人数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">国家卫健委不在发布湖北省的新增重症病例
+由今日现有重症+危症减去昨天的反推
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">湖北卫健委发布的累计临床确诊也是这个数
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">国家卫健委不在发布湖北省的新增重症病例
+由今日现有重症+危症减去昨天的反推
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">核减22
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减108 （全国卫健委发布)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">hfwang:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减269 (全国卫健委发布)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>临床确诊不再细分到城市</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不再发布临床死亡和治愈</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hfwang</author>
+  </authors>
+  <commentList>
+    <comment ref="H37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减1043</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减108</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北核减269</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>江西核减1例</t>
         </r>
       </text>
     </comment>
@@ -62,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +1255,6 @@
   </si>
   <si>
     <t>1月12日 - 1月21日 武汉市卫健委连续发布“新型冠状病毒的肺炎通报”，发布前一日的新增确诊病例，新增治愈出院， 新增死亡，和累计确诊病例， 累计治愈， 累计死亡数字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月22日发布公告， 停止发布， 汇总至湖北省卫健委统一发布</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -194,6 +1345,86 @@
     <t>共有疑似</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>发布公告， 停止发布， 汇总至湖北省卫健委统一发布</t>
+  </si>
+  <si>
+    <t>湖北卫健委发布通告， 改变“新增确诊病例”标准， 临床确诊也计入确诊人数。  http://wjw.hubei.gov.cn/bmdt/ztzl/fkxxgzbdgrfyyq/xxfb/202002/t20200213_2025580.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北卫健委首次发布，“临床确诊病例”， 该数字没有细分到城市， 没有加入新增疑似， 没有汇总到全国“新增确诊" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>国家卫健委新闻发布会上透露， 核酸阳性但是无症状者不计入确诊病例。 “有记者提问，国家卫生健康委</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">决定从确诊患者的统计中排除那些没有症状的人，这种变化可能会大大减少确诊患者的人数” </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计临床确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增临床确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增疑似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -202,7 +1433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +1468,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -244,15 +1476,54 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +1541,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,17 +1551,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +1580,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,11 +1841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,7 +1856,7 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -599,23 +1876,32 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -641,7 +1927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -667,7 +1953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -693,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -719,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -745,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -774,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -803,7 +2089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -832,7 +2118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -859,7 +2145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -886,7 +2172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -915,7 +2201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -944,7 +2230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -970,7 +2256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -996,7 +2282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1025,7 +2311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1054,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1078,18 +2364,21 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20">
         <v>10261</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1113,18 +2402,21 @@
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21">
         <v>10702</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1152,14 +2444,14 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>12263</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1185,7 +2477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1211,7 +2503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1237,7 +2529,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1263,7 +2555,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1289,7 +2581,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1315,7 +2607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1341,7 +2633,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1367,58 +2659,391 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>43868</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <v>1985</v>
+      </c>
+      <c r="D31">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>164</v>
+      </c>
+      <c r="G31">
+        <v>13603</v>
+      </c>
+      <c r="H31">
+        <v>545</v>
+      </c>
+      <c r="I31">
+        <f>E31+I30</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>43869</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <v>1379</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>14982</v>
+      </c>
+      <c r="H32">
+        <v>608</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I38" si="3">E32+I31</f>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>43870</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <v>1921</v>
+      </c>
+      <c r="D33">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>167</v>
+      </c>
+      <c r="G33">
+        <v>16902</v>
+      </c>
+      <c r="H33">
+        <v>681</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>43871</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <v>1552</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>162</v>
+      </c>
+      <c r="G34">
+        <v>18454</v>
+      </c>
+      <c r="H34">
+        <v>748</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>43872</v>
+      </c>
+      <c r="C35">
+        <v>1104</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>171</v>
+      </c>
+      <c r="G35">
+        <v>19558</v>
+      </c>
+      <c r="H35">
+        <v>820</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C36">
+        <v>13436</v>
+      </c>
+      <c r="D36">
+        <v>216</v>
+      </c>
+      <c r="E36">
+        <v>538</v>
+      </c>
+      <c r="G36">
+        <v>32994</v>
+      </c>
+      <c r="H36">
+        <v>1036</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1882</v>
+      </c>
+      <c r="J36">
+        <v>12364</v>
+      </c>
+      <c r="K36">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C37">
+        <v>3910</v>
+      </c>
+      <c r="D37">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>370</v>
+      </c>
+      <c r="G37">
+        <v>35991</v>
+      </c>
+      <c r="H37">
+        <v>1016</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>2252</v>
+      </c>
+      <c r="J37">
+        <v>14031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C38">
+        <v>1923</v>
+      </c>
+      <c r="D38">
+        <v>107</v>
+      </c>
+      <c r="E38">
+        <v>486</v>
+      </c>
+      <c r="G38">
+        <v>37914</v>
+      </c>
+      <c r="H38">
+        <v>1123</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>2738</v>
+      </c>
+      <c r="J38">
+        <v>14953</v>
+      </c>
+      <c r="K38">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C39">
+        <v>1548</v>
+      </c>
+      <c r="D39">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>413</v>
+      </c>
+      <c r="G39">
+        <v>39462</v>
+      </c>
+      <c r="H39">
+        <v>1233</v>
+      </c>
+      <c r="I39">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43890</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,46 +3051,67 @@
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1473,7 +3119,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1481,7 +3127,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1489,7 +3135,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1497,7 +3143,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1505,7 +3151,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1513,7 +3159,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1521,7 +3167,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1529,7 +3175,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1537,7 +3183,7 @@
         <v>43849</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1553,20 +3199,26 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="L13">
         <v>270</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>6</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O13">
+        <v>51</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1582,17 +3234,23 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="L14">
         <v>375</v>
       </c>
-      <c r="H14">
+      <c r="M14">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="N14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O14">
+        <v>65</v>
+      </c>
+      <c r="P14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1608,17 +3266,23 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="L15">
         <v>444</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>17</v>
       </c>
-      <c r="I15">
+      <c r="N15">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O15">
+        <v>71</v>
+      </c>
+      <c r="P15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1634,17 +3298,23 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="L16">
         <v>549</v>
       </c>
-      <c r="H16">
+      <c r="M16">
         <v>24</v>
       </c>
-      <c r="I16">
+      <c r="N16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O16">
+        <v>106</v>
+      </c>
+      <c r="P16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1660,17 +3330,23 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="L17">
         <v>729</v>
       </c>
-      <c r="H17">
+      <c r="M17">
         <v>39</v>
       </c>
-      <c r="I17">
+      <c r="N17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1686,17 +3362,20 @@
       <c r="E18">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="L18">
         <v>1052</v>
       </c>
-      <c r="H18">
+      <c r="M18">
         <v>52</v>
       </c>
-      <c r="I18">
+      <c r="N18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1712,17 +3391,23 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="L19">
         <v>1423</v>
       </c>
-      <c r="H19">
+      <c r="M19">
         <v>76</v>
       </c>
-      <c r="I19">
+      <c r="N19">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O19">
+        <v>221</v>
+      </c>
+      <c r="P19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1738,23 +3423,29 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="L20">
         <v>2714</v>
       </c>
-      <c r="H20">
+      <c r="M20">
         <v>100</v>
       </c>
-      <c r="I20">
+      <c r="N20">
         <v>47</v>
       </c>
-      <c r="K20">
+      <c r="O20">
+        <v>563</v>
+      </c>
+      <c r="P20">
+        <v>127</v>
+      </c>
+      <c r="R20">
         <v>31934</v>
       </c>
-      <c r="L20">
+      <c r="S20">
         <v>3759</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1770,23 +3461,29 @@
       <c r="E21">
         <v>33</v>
       </c>
-      <c r="G21">
+      <c r="L21">
         <v>3554</v>
       </c>
-      <c r="H21">
+      <c r="M21">
         <v>125</v>
       </c>
-      <c r="I21">
+      <c r="N21">
         <v>80</v>
       </c>
-      <c r="K21">
+      <c r="O21">
+        <v>671</v>
+      </c>
+      <c r="P21">
+        <v>228</v>
+      </c>
+      <c r="R21">
         <v>31639</v>
       </c>
-      <c r="L21">
+      <c r="S21">
         <v>3644</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1802,23 +3499,29 @@
       <c r="E22">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="L22">
         <v>4586</v>
       </c>
-      <c r="H22">
+      <c r="M22">
         <v>162</v>
       </c>
-      <c r="I22">
+      <c r="N22">
         <v>90</v>
       </c>
-      <c r="K22">
+      <c r="O22">
+        <v>711</v>
+      </c>
+      <c r="P22">
+        <v>277</v>
+      </c>
+      <c r="R22">
         <v>32309</v>
       </c>
-      <c r="L22">
+      <c r="S22">
         <v>4095</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1834,17 +3537,23 @@
       <c r="E23">
         <v>26</v>
       </c>
-      <c r="G23">
+      <c r="L23">
         <v>5806</v>
       </c>
-      <c r="H23">
+      <c r="M23">
         <v>204</v>
       </c>
-      <c r="I23">
+      <c r="N23">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>804</v>
+      </c>
+      <c r="P23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1860,17 +3569,23 @@
       <c r="E24">
         <v>50</v>
       </c>
-      <c r="G24">
+      <c r="L24">
         <v>7153</v>
       </c>
-      <c r="H24">
+      <c r="M24">
         <v>249</v>
       </c>
-      <c r="I24">
+      <c r="N24">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O24">
+        <v>956</v>
+      </c>
+      <c r="P24">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1886,17 +3601,29 @@
       <c r="E25">
         <v>49</v>
       </c>
+      <c r="F25">
+        <v>2606</v>
+      </c>
       <c r="G25">
+        <v>268</v>
+      </c>
+      <c r="L25">
         <v>9074</v>
       </c>
-      <c r="H25">
+      <c r="M25">
         <v>294</v>
       </c>
-      <c r="I25">
+      <c r="N25">
         <v>215</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O25">
+        <v>1118</v>
+      </c>
+      <c r="P25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1912,17 +3639,29 @@
       <c r="E26">
         <v>80</v>
       </c>
+      <c r="F26">
+        <v>3260</v>
+      </c>
       <c r="G26">
+        <v>139</v>
+      </c>
+      <c r="L26">
         <v>11177</v>
       </c>
-      <c r="H26">
+      <c r="M26">
         <v>350</v>
       </c>
-      <c r="I26">
+      <c r="N26">
         <v>295</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>1223</v>
+      </c>
+      <c r="P26">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1938,17 +3677,29 @@
       <c r="E27">
         <v>101</v>
       </c>
+      <c r="F27">
+        <v>3182</v>
+      </c>
       <c r="G27">
+        <v>442</v>
+      </c>
+      <c r="L27">
         <v>13522</v>
       </c>
-      <c r="H27">
+      <c r="M27">
         <v>414</v>
       </c>
-      <c r="I27">
+      <c r="N27">
         <v>396</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O27">
+        <v>1567</v>
+      </c>
+      <c r="P27">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1964,17 +3715,29 @@
       <c r="E28">
         <v>125</v>
       </c>
+      <c r="F28">
+        <v>1957</v>
+      </c>
       <c r="G28">
+        <v>377</v>
+      </c>
+      <c r="L28">
         <v>16678</v>
       </c>
-      <c r="H28">
+      <c r="M28">
         <v>479</v>
       </c>
-      <c r="I28">
+      <c r="N28">
         <v>520</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>1809</v>
+      </c>
+      <c r="P28">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1990,19 +3753,31 @@
       <c r="E29">
         <v>113</v>
       </c>
+      <c r="F29">
+        <v>3230</v>
+      </c>
       <c r="G29">
+        <v>564</v>
+      </c>
+      <c r="L29">
         <v>19665</v>
       </c>
-      <c r="H29">
+      <c r="M29">
         <v>549</v>
       </c>
-      <c r="I29">
+      <c r="N29">
         <v>633</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O29">
+        <v>2328</v>
+      </c>
+      <c r="P29">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>43867</v>
@@ -2016,22 +3791,570 @@
       <c r="E30">
         <v>184</v>
       </c>
+      <c r="F30">
+        <v>2622</v>
+      </c>
       <c r="G30">
+        <v>918</v>
+      </c>
+      <c r="L30">
         <v>22112</v>
       </c>
-      <c r="H30">
+      <c r="M30">
         <v>618</v>
       </c>
-      <c r="I30">
+      <c r="N30">
         <v>817</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O30">
+        <v>3161</v>
+      </c>
+      <c r="P30">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>43868</v>
+      </c>
+      <c r="C31">
+        <v>2841</v>
+      </c>
+      <c r="D31">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>298</v>
+      </c>
+      <c r="F31">
+        <v>2073</v>
+      </c>
+      <c r="G31">
+        <v>1193</v>
+      </c>
+      <c r="L31">
+        <v>24953</v>
+      </c>
+      <c r="M31">
+        <v>699</v>
+      </c>
+      <c r="N31">
+        <v>1115</v>
+      </c>
+      <c r="O31">
+        <v>4188</v>
+      </c>
+      <c r="P31">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C32">
+        <v>2147</v>
+      </c>
+      <c r="D32">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>324</v>
+      </c>
+      <c r="F32">
+        <v>2067</v>
+      </c>
+      <c r="G32">
+        <v>52</v>
+      </c>
+      <c r="L32">
+        <v>27100</v>
+      </c>
+      <c r="M32">
+        <v>780</v>
+      </c>
+      <c r="N32">
+        <v>1439</v>
+      </c>
+      <c r="O32">
+        <v>4093</v>
+      </c>
+      <c r="P32">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C33">
+        <v>2618</v>
+      </c>
+      <c r="D33">
+        <v>91</v>
+      </c>
+      <c r="E33">
+        <v>356</v>
+      </c>
+      <c r="F33">
+        <v>2272</v>
+      </c>
+      <c r="G33">
+        <v>258</v>
+      </c>
+      <c r="L33">
+        <v>29631</v>
+      </c>
+      <c r="M33">
+        <v>871</v>
+      </c>
+      <c r="N33">
+        <v>1795</v>
+      </c>
+      <c r="O33">
+        <v>4269</v>
+      </c>
+      <c r="P33">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C34">
+        <v>2097</v>
+      </c>
+      <c r="D34">
+        <v>103</v>
+      </c>
+      <c r="E34">
+        <v>427</v>
+      </c>
+      <c r="F34">
+        <v>1814</v>
+      </c>
+      <c r="G34">
+        <v>839</v>
+      </c>
+      <c r="L34">
+        <v>31728</v>
+      </c>
+      <c r="M34">
+        <v>974</v>
+      </c>
+      <c r="N34">
+        <v>2222</v>
+      </c>
+      <c r="O34">
+        <v>5046</v>
+      </c>
+      <c r="P34">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C35">
+        <v>1638</v>
+      </c>
+      <c r="D35">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>417</v>
+      </c>
+      <c r="F35">
+        <v>1685</v>
+      </c>
+      <c r="G35">
+        <v>897</v>
+      </c>
+      <c r="H35">
+        <v>4890</v>
+      </c>
+      <c r="L35">
+        <v>33366</v>
+      </c>
+      <c r="M35">
+        <v>1068</v>
+      </c>
+      <c r="N35">
+        <v>2639</v>
+      </c>
+      <c r="O35">
+        <v>5724</v>
+      </c>
+      <c r="P35">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C36">
+        <v>14840</v>
+      </c>
+      <c r="D36">
+        <v>242</v>
+      </c>
+      <c r="E36">
+        <v>802</v>
+      </c>
+      <c r="F36">
+        <v>1377</v>
+      </c>
+      <c r="G36">
+        <f>(O36+P36)-(O35+P35)</f>
+        <v>-157</v>
+      </c>
+      <c r="H36">
+        <v>13332</v>
+      </c>
+      <c r="I36">
+        <v>135</v>
+      </c>
+      <c r="J36">
+        <v>423</v>
+      </c>
+      <c r="L36">
+        <v>48206</v>
+      </c>
+      <c r="M36">
+        <v>1310</v>
+      </c>
+      <c r="N36">
+        <v>3441</v>
+      </c>
+      <c r="O36">
+        <v>5647</v>
+      </c>
+      <c r="P36">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C37">
+        <v>4823</v>
+      </c>
+      <c r="D37">
+        <v>116</v>
+      </c>
+      <c r="E37">
+        <v>690</v>
+      </c>
+      <c r="F37">
+        <v>1154</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G39" si="0">(O37+P37)-(O36+P36)</f>
+        <v>2194</v>
+      </c>
+      <c r="H37">
+        <f>3095-22</f>
+        <v>3073</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>214</v>
+      </c>
+      <c r="L37">
+        <v>51986</v>
+      </c>
+      <c r="M37">
+        <f>M36+B37-108</f>
+        <v>45076</v>
+      </c>
+      <c r="N37">
+        <f>N36+C37-269</f>
+        <v>7995</v>
+      </c>
+      <c r="O37">
+        <v>7593</v>
+      </c>
+      <c r="P37">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C38">
+        <v>2420</v>
+      </c>
+      <c r="D38">
+        <v>139</v>
+      </c>
+      <c r="E38">
+        <v>912</v>
+      </c>
+      <c r="F38">
+        <v>1216</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+      <c r="H38">
+        <v>1138</v>
+      </c>
+      <c r="I38">
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <v>263</v>
+      </c>
+      <c r="L38">
+        <v>54406</v>
+      </c>
+      <c r="M38">
+        <v>1457</v>
+      </c>
+      <c r="N38">
+        <v>4774</v>
+      </c>
+      <c r="O38">
+        <v>8276</v>
+      </c>
+      <c r="P38">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C39">
+        <v>1843</v>
+      </c>
+      <c r="D39">
+        <v>139</v>
+      </c>
+      <c r="E39">
+        <v>849</v>
+      </c>
+      <c r="F39">
+        <v>1036</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="H39">
+        <v>888</v>
+      </c>
+      <c r="L39">
+        <v>56249</v>
+      </c>
+      <c r="M39">
+        <v>1596</v>
+      </c>
+      <c r="N39">
+        <v>5623</v>
+      </c>
+      <c r="O39">
+        <v>8439</v>
+      </c>
+      <c r="P39">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2042,102 +4365,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="6"/>
+    <col min="2" max="2" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>43841</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>43842</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>43843</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>43844</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>43845</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>43846</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>43847</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>43848</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>43849</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>43850</v>
       </c>
       <c r="C13">
@@ -2148,7 +4474,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>43851</v>
       </c>
       <c r="C14">
@@ -2171,7 +4497,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>43852</v>
       </c>
       <c r="C15">
@@ -2200,7 +4526,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>43853</v>
       </c>
       <c r="C16">
@@ -2232,7 +4558,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>43854</v>
       </c>
       <c r="C17">
@@ -2264,7 +4590,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>43855</v>
       </c>
       <c r="C18">
@@ -2299,7 +4625,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>43856</v>
       </c>
       <c r="C19">
@@ -2334,7 +4660,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>43857</v>
       </c>
       <c r="C20">
@@ -2369,7 +4695,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>43858</v>
       </c>
       <c r="C21">
@@ -2404,7 +4730,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>43859</v>
       </c>
       <c r="C22">
@@ -2439,7 +4765,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>43860</v>
       </c>
       <c r="C23">
@@ -2474,7 +4800,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>43861</v>
       </c>
       <c r="C24">
@@ -2509,7 +4835,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>43862</v>
       </c>
       <c r="C25">
@@ -2544,7 +4870,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>43863</v>
       </c>
       <c r="C26">
@@ -2579,7 +4905,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>43864</v>
       </c>
       <c r="C27">
@@ -2614,7 +4940,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>43865</v>
       </c>
       <c r="C28">
@@ -2649,7 +4975,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>43866</v>
       </c>
       <c r="C29">
@@ -2684,7 +5010,7 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>43867</v>
       </c>
       <c r="C30">
@@ -2719,19 +5045,385 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>43868</v>
+      </c>
+      <c r="C31">
+        <v>3399</v>
+      </c>
+      <c r="D31">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>510</v>
+      </c>
+      <c r="F31">
+        <v>1280</v>
+      </c>
+      <c r="G31">
+        <v>4214</v>
+      </c>
+      <c r="H31">
+        <v>34546</v>
+      </c>
+      <c r="I31">
+        <v>722</v>
+      </c>
+      <c r="J31">
+        <v>2050</v>
+      </c>
+      <c r="K31">
+        <v>6101</v>
+      </c>
+      <c r="L31">
+        <v>27657</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="5">
+        <v>43869</v>
+      </c>
+      <c r="C32">
+        <v>2656</v>
+      </c>
+      <c r="D32">
+        <v>89</v>
+      </c>
+      <c r="E32">
+        <v>600</v>
+      </c>
+      <c r="F32" s="8">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <v>3916</v>
+      </c>
+      <c r="H32">
+        <v>37198</v>
+      </c>
+      <c r="I32">
+        <v>811</v>
+      </c>
+      <c r="J32">
+        <v>2649</v>
+      </c>
+      <c r="K32">
+        <v>6188</v>
+      </c>
+      <c r="L32">
+        <v>28942</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="5">
+        <v>43870</v>
+      </c>
+      <c r="C33">
+        <v>3062</v>
+      </c>
+      <c r="D33">
+        <v>97</v>
+      </c>
+      <c r="E33">
+        <v>632</v>
+      </c>
+      <c r="F33">
+        <v>296</v>
+      </c>
+      <c r="G33">
+        <v>4008</v>
+      </c>
+      <c r="H33">
+        <v>40171</v>
+      </c>
+      <c r="I33">
+        <v>908</v>
+      </c>
+      <c r="J33">
+        <v>3281</v>
+      </c>
+      <c r="K33">
+        <v>6484</v>
+      </c>
+      <c r="L33">
+        <v>23589</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="5">
+        <v>43871</v>
+      </c>
+      <c r="C34">
+        <v>2478</v>
+      </c>
+      <c r="D34">
+        <v>108</v>
+      </c>
+      <c r="E34">
+        <v>716</v>
+      </c>
+      <c r="F34">
+        <v>849</v>
+      </c>
+      <c r="G34">
+        <v>3536</v>
+      </c>
+      <c r="H34">
+        <v>42638</v>
+      </c>
+      <c r="I34">
+        <v>1016</v>
+      </c>
+      <c r="J34">
+        <v>3996</v>
+      </c>
+      <c r="K34">
+        <v>7333</v>
+      </c>
+      <c r="L34">
+        <v>21675</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="5">
+        <v>43872</v>
+      </c>
+      <c r="C35">
+        <v>2015</v>
+      </c>
+      <c r="D35">
+        <v>97</v>
+      </c>
+      <c r="E35">
+        <v>744</v>
+      </c>
+      <c r="F35">
+        <v>871</v>
+      </c>
+      <c r="G35">
+        <v>3342</v>
+      </c>
+      <c r="H35">
+        <v>44653</v>
+      </c>
+      <c r="I35">
+        <v>1113</v>
+      </c>
+      <c r="J35">
+        <v>4740</v>
+      </c>
+      <c r="K35">
+        <v>8204</v>
+      </c>
+      <c r="L35">
+        <v>16067</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="5">
+        <v>43873</v>
+      </c>
+      <c r="C36">
+        <v>15152</v>
+      </c>
+      <c r="D36">
+        <v>254</v>
+      </c>
+      <c r="E36">
+        <v>1171</v>
+      </c>
+      <c r="F36">
+        <v>-174</v>
+      </c>
+      <c r="G36">
+        <v>2807</v>
+      </c>
+      <c r="H36">
+        <v>59804</v>
+      </c>
+      <c r="I36">
+        <v>1367</v>
+      </c>
+      <c r="J36">
+        <v>5911</v>
+      </c>
+      <c r="K36">
+        <v>8030</v>
+      </c>
+      <c r="L36">
+        <v>13435</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="5">
+        <v>43874</v>
+      </c>
+      <c r="C37">
+        <v>5090</v>
+      </c>
+      <c r="D37">
+        <v>121</v>
+      </c>
+      <c r="E37">
+        <v>1081</v>
+      </c>
+      <c r="F37">
+        <v>2174</v>
+      </c>
+      <c r="G37">
+        <v>2450</v>
+      </c>
+      <c r="H37">
+        <v>63851</v>
+      </c>
+      <c r="I37">
+        <v>1380</v>
+      </c>
+      <c r="J37">
+        <v>6723</v>
+      </c>
+      <c r="K37">
+        <v>10204</v>
+      </c>
+      <c r="L37">
+        <v>10109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="5">
+        <v>43875</v>
+      </c>
+      <c r="C38">
+        <v>2641</v>
+      </c>
+      <c r="D38">
+        <v>143</v>
+      </c>
+      <c r="E38">
+        <v>1373</v>
+      </c>
+      <c r="F38">
+        <v>849</v>
+      </c>
+      <c r="G38">
+        <v>2277</v>
+      </c>
+      <c r="H38">
+        <v>66492</v>
+      </c>
+      <c r="I38">
+        <v>1523</v>
+      </c>
+      <c r="J38">
+        <v>8096</v>
+      </c>
+      <c r="K38">
+        <v>11053</v>
+      </c>
+      <c r="L38">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C39">
+        <v>2009</v>
+      </c>
+      <c r="D39">
+        <v>142</v>
+      </c>
+      <c r="E39">
+        <v>1323</v>
+      </c>
+      <c r="F39">
+        <v>219</v>
+      </c>
+      <c r="G39">
+        <v>1918</v>
+      </c>
+      <c r="H39">
+        <v>68500</v>
+      </c>
+      <c r="I39">
+        <v>1665</v>
+      </c>
+      <c r="J39">
+        <v>9419</v>
+      </c>
+      <c r="K39">
+        <v>11272</v>
+      </c>
+      <c r="L39">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="5">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="5">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="5">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="5">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="5">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B45" s="5">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="5">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="5">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="5">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="5">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="5">
+        <v>43887</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2752,66 +5444,96 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>43875</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>43873</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>43853</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>43849</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>43841</v>
+        <v>43852</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43835</v>
+        <v>43849</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>43833</v>
+        <v>43841</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
+        <v>43835</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>44196</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1423,6 +1423,10 @@
   </si>
   <si>
     <t>危重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在国家卫健委第6版新冠肺炎诊治方案中， 取消湖北的临床确诊。 “诊断标准不再分湖北和湖北以外，诊断分疑似病例和确诊病例，确诊病例还是要求有病毒核酸检测阳性或者基因测序同源证据，取消了专门针对湖北的临床诊断病例。因此疫情报告湖北的诊断病例人数近日可能出现下降。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,10 +1849,10 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2923,6 +2927,24 @@
       <c r="B40" s="1">
         <v>43877</v>
       </c>
+      <c r="C40">
+        <v>1690</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <v>543</v>
+      </c>
+      <c r="G40">
+        <v>41152</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1309</v>
+      </c>
+      <c r="I40" s="6">
+        <v>3458</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41">
@@ -2931,6 +2953,24 @@
       <c r="B41" s="1">
         <v>43878</v>
       </c>
+      <c r="C41">
+        <v>1600</v>
+      </c>
+      <c r="D41">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>761</v>
+      </c>
+      <c r="G41">
+        <v>42752</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1381</v>
+      </c>
+      <c r="I41" s="6">
+        <v>4219</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42">
@@ -2938,6 +2978,24 @@
       </c>
       <c r="B42" s="1">
         <v>43879</v>
+      </c>
+      <c r="C42">
+        <v>1660</v>
+      </c>
+      <c r="D42">
+        <v>116</v>
+      </c>
+      <c r="E42">
+        <v>676</v>
+      </c>
+      <c r="G42">
+        <v>44412</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1497</v>
+      </c>
+      <c r="I42" s="6">
+        <v>4895</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -3043,7 +3101,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4074,7 +4132,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G39" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G42" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -4202,6 +4260,37 @@
       <c r="B40" s="1">
         <v>43877</v>
       </c>
+      <c r="C40">
+        <v>1933</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>1016</v>
+      </c>
+      <c r="F40">
+        <v>909</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>-599</v>
+      </c>
+      <c r="L40">
+        <v>58182</v>
+      </c>
+      <c r="M40">
+        <v>1696</v>
+      </c>
+      <c r="N40">
+        <v>6639</v>
+      </c>
+      <c r="O40">
+        <v>8024</v>
+      </c>
+      <c r="P40">
+        <v>1773</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
@@ -4210,6 +4299,37 @@
       <c r="B41" s="1">
         <v>43878</v>
       </c>
+      <c r="C41">
+        <v>1807</v>
+      </c>
+      <c r="D41">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>1223</v>
+      </c>
+      <c r="F41">
+        <v>788</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1173</v>
+      </c>
+      <c r="L41">
+        <v>59989</v>
+      </c>
+      <c r="M41">
+        <v>1789</v>
+      </c>
+      <c r="N41">
+        <v>7862</v>
+      </c>
+      <c r="O41">
+        <v>9117</v>
+      </c>
+      <c r="P41">
+        <v>1853</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
@@ -4217,6 +4337,37 @@
       </c>
       <c r="B42" s="1">
         <v>43879</v>
+      </c>
+      <c r="C42">
+        <v>1693</v>
+      </c>
+      <c r="D42">
+        <v>132</v>
+      </c>
+      <c r="E42">
+        <v>1266</v>
+      </c>
+      <c r="F42">
+        <v>596</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="L42">
+        <v>61682</v>
+      </c>
+      <c r="M42">
+        <v>1921</v>
+      </c>
+      <c r="N42">
+        <v>9128</v>
+      </c>
+      <c r="O42">
+        <v>9289</v>
+      </c>
+      <c r="P42">
+        <v>1957</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -4372,7 +4523,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5363,15 +5514,105 @@
       <c r="B40" s="5">
         <v>43877</v>
       </c>
+      <c r="C40">
+        <v>2048</v>
+      </c>
+      <c r="D40">
+        <v>105</v>
+      </c>
+      <c r="E40">
+        <v>1425</v>
+      </c>
+      <c r="F40">
+        <v>-628</v>
+      </c>
+      <c r="G40">
+        <v>1563</v>
+      </c>
+      <c r="H40">
+        <v>70548</v>
+      </c>
+      <c r="I40">
+        <v>1770</v>
+      </c>
+      <c r="J40">
+        <v>10844</v>
+      </c>
+      <c r="K40">
+        <v>10644</v>
+      </c>
+      <c r="L40">
+        <v>7264</v>
+      </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="5">
         <v>43878</v>
       </c>
+      <c r="C41">
+        <v>1886</v>
+      </c>
+      <c r="D41">
+        <v>98</v>
+      </c>
+      <c r="E41">
+        <v>1701</v>
+      </c>
+      <c r="F41">
+        <v>1097</v>
+      </c>
+      <c r="G41">
+        <v>1432</v>
+      </c>
+      <c r="H41">
+        <v>72436</v>
+      </c>
+      <c r="I41">
+        <v>1868</v>
+      </c>
+      <c r="J41">
+        <v>12552</v>
+      </c>
+      <c r="K41">
+        <v>11741</v>
+      </c>
+      <c r="L41">
+        <v>6242</v>
+      </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="5">
         <v>43879</v>
+      </c>
+      <c r="C42">
+        <v>1749</v>
+      </c>
+      <c r="D42">
+        <v>136</v>
+      </c>
+      <c r="E42">
+        <v>1824</v>
+      </c>
+      <c r="F42">
+        <v>236</v>
+      </c>
+      <c r="G42">
+        <v>1185</v>
+      </c>
+      <c r="H42">
+        <v>74185</v>
+      </c>
+      <c r="I42">
+        <v>2004</v>
+      </c>
+      <c r="J42">
+        <v>14376</v>
+      </c>
+      <c r="K42">
+        <v>11977</v>
+      </c>
+      <c r="L42">
+        <v>5248</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
@@ -5423,10 +5664,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5448,91 +5689,96 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>43873</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>43853</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>43852</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43849</v>
+        <v>43852</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>43841</v>
+        <v>43849</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>43835</v>
+        <v>43841</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>43833</v>
+        <v>43835</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>44196</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -1066,6 +1066,278 @@
         </r>
       </text>
     </comment>
+    <comment ref="C43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据国家卫健委发布的湖北省加回当日核减数据，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">倒推要加回426。 湖北省此前的发布值为349
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据国家卫健委发布的湖北省订正反推
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>根据国家卫健委发布的湖北省订正反推</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">监狱220
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">根据对2/19日的数据订正
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">监狱1例
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>监狱系统</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 32
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1212,12 +1484,259 @@
         </r>
       </text>
     </comment>
+    <comment ref="C43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">月21日， 湖北省将2月19日核减的病例数重新加回到确诊病例，并对当日新增病例数进行校正。 前值394
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>江西，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>河南，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">云南各核减1例. 订正前值为74576
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">订正前值为16155
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">订正前值为75465
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">订正前值为18264
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>安徽核减1例</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,7 +1945,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>湖北卫健委下午招开新闻发布会， 称“这些天湖北省特别是武汉市发布的新冠肺炎数据的调整， 引起了高度社会关注度。 对此， 省委书记应勇明确要求对已确诊的病例不允许核减， 已核减的必须要不加回， 对相关责任人要查清事实， 严肃问责”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在国家卫健委第6版新冠肺炎诊治方案中， 取消湖北的临床确诊。 “诊断标准不再分湖北和湖北以外，诊断分疑似病例和确诊病例，确诊病例还是要求有病毒核酸检测阳性或者基因测序同源证据，取消了专门针对湖北的临床诊断病例。因此疫情报告湖北的诊断病例人数近日可能出现下降。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北卫健委发布的当日新增病例中， 有是个城市都是负数（核减xx例）， 武汉600多， 较前日新增下降1000多。 个人认为更合理的做法是如果需要核减临床确诊病例， 应该从累计确诊中核减， 而不是从当日新增中核减。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北卫健委发布的2月20日全省新增病例为411， 国家卫健委发布的湖北省新增为631， 并且在浙江省和山东省两处的监狱爆发聚集性传染， 浙江27例， 山东200例。 中午， 湖北卫健委发布订正， 称有271例确诊来自于监狱，其中51例在其他数据里面统计了， 还有220之前没有统计，订正后的新增为631。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,10 +2380,10 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3005,6 +3536,25 @@
       <c r="B43" s="1">
         <v>43880</v>
       </c>
+      <c r="C43">
+        <v>615</v>
+      </c>
+      <c r="D43">
+        <v>88</v>
+      </c>
+      <c r="E43">
+        <v>553</v>
+      </c>
+      <c r="G43">
+        <v>45027</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1585</v>
+      </c>
+      <c r="I43">
+        <f>J42+E43</f>
+        <v>553</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44">
@@ -3013,6 +3563,24 @@
       <c r="B44" s="1">
         <v>43881</v>
       </c>
+      <c r="C44">
+        <v>319</v>
+      </c>
+      <c r="D44">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>766</v>
+      </c>
+      <c r="G44">
+        <v>45346</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1684</v>
+      </c>
+      <c r="I44" s="6">
+        <v>6214</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
@@ -3021,6 +3589,24 @@
       <c r="B45" s="1">
         <v>43882</v>
       </c>
+      <c r="C45">
+        <v>314</v>
+      </c>
+      <c r="D45">
+        <v>90</v>
+      </c>
+      <c r="E45">
+        <v>992</v>
+      </c>
+      <c r="G45">
+        <v>45660</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1774</v>
+      </c>
+      <c r="I45" s="6">
+        <v>7206</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46">
@@ -3028,6 +3614,24 @@
       </c>
       <c r="B46" s="1">
         <v>43883</v>
+      </c>
+      <c r="C46">
+        <v>541</v>
+      </c>
+      <c r="D46">
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>965</v>
+      </c>
+      <c r="G46">
+        <v>46201</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1856</v>
+      </c>
+      <c r="I46" s="6">
+        <v>8171</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -3098,10 +3702,10 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4132,7 +4736,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G42" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G46" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -4377,6 +4981,40 @@
       <c r="B43" s="1">
         <v>43880</v>
       </c>
+      <c r="C43">
+        <f>349+(820-394)</f>
+        <v>775</v>
+      </c>
+      <c r="D43">
+        <v>108</v>
+      </c>
+      <c r="E43">
+        <v>1209</v>
+      </c>
+      <c r="F43">
+        <v>880</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>-68</v>
+      </c>
+      <c r="L43">
+        <f>62031+426</f>
+        <v>62457</v>
+      </c>
+      <c r="M43">
+        <v>2029</v>
+      </c>
+      <c r="N43">
+        <f>10337+2</f>
+        <v>10339</v>
+      </c>
+      <c r="O43">
+        <v>9128</v>
+      </c>
+      <c r="P43">
+        <v>2050</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
@@ -4385,6 +5023,38 @@
       <c r="B44" s="1">
         <v>43881</v>
       </c>
+      <c r="C44">
+        <v>631</v>
+      </c>
+      <c r="D44">
+        <v>115</v>
+      </c>
+      <c r="E44">
+        <v>1451</v>
+      </c>
+      <c r="F44">
+        <v>1279</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>-181</v>
+      </c>
+      <c r="L44">
+        <f>L43+B44</f>
+        <v>106338</v>
+      </c>
+      <c r="M44">
+        <v>2144</v>
+      </c>
+      <c r="N44">
+        <v>11788</v>
+      </c>
+      <c r="O44">
+        <v>8979</v>
+      </c>
+      <c r="P44">
+        <v>2018</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
@@ -4393,6 +5063,37 @@
       <c r="B45" s="1">
         <v>43882</v>
       </c>
+      <c r="C45">
+        <v>366</v>
+      </c>
+      <c r="D45">
+        <v>106</v>
+      </c>
+      <c r="E45">
+        <v>1767</v>
+      </c>
+      <c r="F45">
+        <v>1125</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>-105</v>
+      </c>
+      <c r="L45">
+        <v>63454</v>
+      </c>
+      <c r="M45">
+        <v>2250</v>
+      </c>
+      <c r="N45">
+        <v>13557</v>
+      </c>
+      <c r="O45">
+        <v>8400</v>
+      </c>
+      <c r="P45">
+        <v>2492</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
@@ -4400,6 +5101,37 @@
       </c>
       <c r="B46" s="1">
         <v>43883</v>
+      </c>
+      <c r="C46">
+        <v>630</v>
+      </c>
+      <c r="D46">
+        <v>96</v>
+      </c>
+      <c r="E46">
+        <v>1742</v>
+      </c>
+      <c r="F46">
+        <v>631</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>-464</v>
+      </c>
+      <c r="L46">
+        <v>64084</v>
+      </c>
+      <c r="M46">
+        <v>2346</v>
+      </c>
+      <c r="N46">
+        <v>15299</v>
+      </c>
+      <c r="O46">
+        <v>8583</v>
+      </c>
+      <c r="P46">
+        <v>1845</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -4520,10 +5252,10 @@
   <dimension ref="B1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5619,20 +6351,140 @@
       <c r="B43" s="5">
         <v>43880</v>
       </c>
+      <c r="C43">
+        <v>820</v>
+      </c>
+      <c r="D43">
+        <v>114</v>
+      </c>
+      <c r="E43">
+        <v>1779</v>
+      </c>
+      <c r="F43">
+        <v>-113</v>
+      </c>
+      <c r="G43">
+        <v>1277</v>
+      </c>
+      <c r="H43">
+        <v>75002</v>
+      </c>
+      <c r="I43">
+        <v>2118</v>
+      </c>
+      <c r="J43">
+        <v>16157</v>
+      </c>
+      <c r="K43">
+        <v>11864</v>
+      </c>
+      <c r="L43">
+        <v>4922</v>
+      </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="5">
         <v>43881</v>
       </c>
+      <c r="C44">
+        <v>889</v>
+      </c>
+      <c r="D44">
+        <v>118</v>
+      </c>
+      <c r="E44">
+        <v>2109</v>
+      </c>
+      <c r="F44">
+        <v>-231</v>
+      </c>
+      <c r="G44">
+        <v>1614</v>
+      </c>
+      <c r="H44">
+        <v>75891</v>
+      </c>
+      <c r="I44">
+        <v>2236</v>
+      </c>
+      <c r="J44">
+        <v>18266</v>
+      </c>
+      <c r="K44">
+        <v>11633</v>
+      </c>
+      <c r="L44">
+        <v>5206</v>
+      </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="5">
         <v>43882</v>
       </c>
+      <c r="C45">
+        <v>397</v>
+      </c>
+      <c r="D45">
+        <v>109</v>
+      </c>
+      <c r="E45">
+        <v>2393</v>
+      </c>
+      <c r="F45">
+        <v>-156</v>
+      </c>
+      <c r="G45">
+        <v>1361</v>
+      </c>
+      <c r="H45">
+        <v>76288</v>
+      </c>
+      <c r="I45">
+        <v>2345</v>
+      </c>
+      <c r="J45">
+        <v>20659</v>
+      </c>
+      <c r="K45">
+        <v>11477</v>
+      </c>
+      <c r="L45">
+        <v>5365</v>
+      </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46" s="5">
         <v>43883</v>
+      </c>
+      <c r="C46">
+        <v>648</v>
+      </c>
+      <c r="D46">
+        <v>97</v>
+      </c>
+      <c r="E46">
+        <v>2230</v>
+      </c>
+      <c r="F46">
+        <v>-509</v>
+      </c>
+      <c r="G46">
+        <v>882</v>
+      </c>
+      <c r="H46">
+        <v>76936</v>
+      </c>
+      <c r="I46">
+        <v>2442</v>
+      </c>
+      <c r="J46">
+        <v>22888</v>
+      </c>
+      <c r="K46">
+        <v>10968</v>
+      </c>
+      <c r="L46">
+        <v>4148</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
@@ -5664,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5691,7 +6543,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>43879</v>
+        <v>43882</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>49</v>
@@ -5699,86 +6551,110 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>43874</v>
+        <v>43880</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>43873</v>
+        <v>43879</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>43853</v>
+      <c r="A9" s="4">
+        <v>43875</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43852</v>
+        <v>43874</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>43849</v>
+        <v>43873</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>43841</v>
+      <c r="A12" s="7">
+        <v>43853</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>43835</v>
+        <v>43852</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>43833</v>
+        <v>43849</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
+        <v>43841</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>43835</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>44196</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L36" authorId="0" shapeId="0">
+    <comment ref="K36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,6 +97,183 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">没有发布治愈的城市细分
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北卫健委称</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ”</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>截至</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2020</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>年</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时，武汉市、黄冈市、荆州市、咸宁市、荆门市、鄂州市对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时确诊病例（含临床诊断病例）数进行了调整核销</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">“
 </t>
         </r>
       </text>
@@ -131,16 +308,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>湖北卫健委称</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ”</t>
+          <t>国家卫健委公布数据，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -150,16 +327,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>截至</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2020</t>
+          <t>和前日累加滞后有缺口，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -169,16 +346,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>年</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
+          <t>国家卫健委称</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>“</t>
         </r>
         <r>
           <rPr>
@@ -188,16 +365,40 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>月</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>13</t>
+          <t>湖北核减</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>108”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
@@ -207,16 +408,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>日</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>24</t>
+          <t>有缺口，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -226,16 +427,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>时，武汉市、黄冈市、荆州市、咸宁市、荆门市、鄂州市对</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>12</t>
+          <t>从昨天累计治愈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
         </r>
         <r>
           <rPr>
@@ -245,16 +446,16 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>日</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>24</t>
+          <t>新增，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -264,117 +465,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>时确诊病例（含临床诊断病例）数进行了调整核销</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">“
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>hfwang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>国家卫健委公布数据，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>和前日累加滞后有缺口，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>国家卫健委称</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>“</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>湖北核减</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>108”</t>
+          <t>差236</t>
         </r>
       </text>
     </comment>
@@ -408,16 +499,31 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>有缺口，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>湖北卫健委不再发布临床死亡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
@@ -427,79 +533,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>从昨天累计治愈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>新增，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>差236</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>hfwang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">订正重复报告195
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>湖北卫健委不再发布临床死亡</t>
         </r>
       </text>
     </comment>
@@ -868,6 +903,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">第一次和I相等， 无缺口
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G37" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1335,6 +1405,40 @@
           </rPr>
           <t xml:space="preserve"> 32
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>订正重复报告195</t>
         </r>
       </text>
     </comment>
@@ -1731,12 +1835,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="I47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>hfwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北订正重复报告病例195</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1958,6 +2096,10 @@
   </si>
   <si>
     <t>湖北卫健委发布的2月20日全省新增病例为411， 国家卫健委发布的湖北省新增为631， 并且在浙江省和山东省两处的监狱爆发聚集性传染， 浙江27例， 山东200例。 中午， 湖北卫健委发布订正， 称有271例确诊来自于监狱，其中51例在其他数据里面统计了， 还有220之前没有统计，订正后的新增为631。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有住院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2377,13 +2519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2391,7 +2533,7 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2401,42 +2543,42 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2452,17 +2594,17 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
       <c r="G4">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2478,17 +2620,17 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
       <c r="G5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2504,17 +2646,17 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
       <c r="G6">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2530,17 +2672,17 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
       <c r="G7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2556,17 +2698,17 @@
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
       <c r="G8">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2582,20 +2724,20 @@
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9">
+        <f>C9+F8</f>
+        <v>45</v>
+      </c>
       <c r="G9">
-        <f>C9+G8</f>
-        <v>45</v>
+        <f>D9+G8</f>
+        <v>2</v>
       </c>
       <c r="H9">
-        <f>D9+H8</f>
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <f>E9+I8</f>
+        <f>E9+H8</f>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2611,20 +2753,20 @@
       <c r="E10">
         <v>4</v>
       </c>
+      <c r="F10">
+        <f>C10+F9</f>
+        <v>62</v>
+      </c>
       <c r="G10">
-        <f t="shared" ref="G10:I15" si="0">C10+G9</f>
-        <v>62</v>
+        <f>D10+G9</f>
+        <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+        <f>E10+H9</f>
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2640,20 +2782,20 @@
       <c r="E11">
         <v>5</v>
       </c>
+      <c r="F11">
+        <f>C11+F10</f>
+        <v>121</v>
+      </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>121</v>
+        <f>D11+G10</f>
+        <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+        <f>E11+H10</f>
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2669,18 +2811,18 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12">
+        <f>C12+F11</f>
+        <v>198</v>
+      </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2696,18 +2838,18 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <f>C13+F12</f>
+        <v>258</v>
+      </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2723,20 +2865,20 @@
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14">
+        <f>C14+F13</f>
+        <v>363</v>
+      </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>363</v>
+        <f>G13+D14</f>
+        <v>9</v>
       </c>
       <c r="H14">
-        <f>H13+D14</f>
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <f>I13+E14</f>
+        <f>H13+E14</f>
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2752,20 +2894,20 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <f>C15+F14</f>
+        <v>425</v>
+      </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>425</v>
+        <f>G14+D15</f>
+        <v>17</v>
       </c>
       <c r="H15">
-        <f>H14+D15</f>
-        <v>17</v>
-      </c>
-      <c r="I15">
-        <f>I14+E15</f>
+        <f>H14+E15</f>
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2781,17 +2923,17 @@
       <c r="E16">
         <v>3</v>
       </c>
+      <c r="F16">
+        <v>495</v>
+      </c>
       <c r="G16">
-        <v>495</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>23</v>
-      </c>
-      <c r="I16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2807,17 +2949,17 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>572</v>
+      </c>
       <c r="G17">
-        <v>572</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>38</v>
-      </c>
-      <c r="I17">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2833,20 +2975,20 @@
       <c r="E18">
         <v>8</v>
       </c>
+      <c r="F18">
+        <f>F17+C18</f>
+        <v>618</v>
+      </c>
       <c r="G18">
-        <f>G17+C18</f>
-        <v>618</v>
+        <f>G17+D18</f>
+        <v>45</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:I18" si="1">H17+D18</f>
-        <v>45</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+        <f>H17+E18</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2862,20 +3004,20 @@
       <c r="E19">
         <v>2</v>
       </c>
+      <c r="F19">
+        <f>F18+C19</f>
+        <v>698</v>
+      </c>
       <c r="G19">
-        <f>G18+C19</f>
-        <v>698</v>
+        <f>G18+D19</f>
+        <v>63</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:I22" si="2">H18+D19</f>
-        <v>63</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
+        <f>H18+E19</f>
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -2891,29 +3033,29 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20">
+        <f>F19+C20</f>
+        <v>1590</v>
+      </c>
       <c r="G20">
-        <f>G19+C20</f>
-        <v>1590</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
+        <f>G19+D20</f>
         <v>85</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="2"/>
+      <c r="H20" s="6">
+        <f>H19+E20</f>
         <v>42</v>
       </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="L20">
+        <v>10261</v>
+      </c>
       <c r="M20">
-        <v>10261</v>
-      </c>
-      <c r="N20">
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2929,29 +3071,29 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21">
+        <f>F20+C21</f>
+        <v>1905</v>
+      </c>
       <c r="G21">
-        <f>G20+C21</f>
-        <v>1905</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
+        <f>G20+D21</f>
         <v>104</v>
       </c>
-      <c r="I21" s="6">
-        <f t="shared" si="2"/>
+      <c r="H21" s="6">
+        <f>H20+E21</f>
         <v>42</v>
       </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="L21">
+        <v>10702</v>
+      </c>
       <c r="M21">
-        <v>10702</v>
-      </c>
-      <c r="N21">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2967,26 +3109,26 @@
       <c r="E22">
         <v>7</v>
       </c>
+      <c r="F22">
+        <f>F21+C22</f>
+        <v>2261</v>
+      </c>
       <c r="G22">
-        <f>G21+C22</f>
-        <v>2261</v>
+        <f>G21+D22</f>
+        <v>129</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
+        <f>H21+E22</f>
         <v>49</v>
       </c>
+      <c r="L22">
+        <v>12263</v>
+      </c>
       <c r="M22">
-        <v>12263</v>
-      </c>
-      <c r="N22">
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3002,17 +3144,17 @@
       <c r="E23">
         <v>21</v>
       </c>
+      <c r="F23">
+        <v>2639</v>
+      </c>
       <c r="G23">
-        <v>2639</v>
+        <v>159</v>
       </c>
       <c r="H23">
-        <v>159</v>
-      </c>
-      <c r="I23">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3028,17 +3170,17 @@
       <c r="E24">
         <v>36</v>
       </c>
+      <c r="F24">
+        <v>3215</v>
+      </c>
       <c r="G24">
-        <v>3215</v>
+        <v>192</v>
       </c>
       <c r="H24">
-        <v>192</v>
-      </c>
-      <c r="I24">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3054,17 +3196,17 @@
       <c r="E25">
         <v>32</v>
       </c>
+      <c r="F25">
+        <v>4109</v>
+      </c>
       <c r="G25">
-        <v>4109</v>
+        <v>224</v>
       </c>
       <c r="H25">
-        <v>224</v>
-      </c>
-      <c r="I25">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3080,17 +3222,17 @@
       <c r="E26">
         <v>53</v>
       </c>
+      <c r="F26">
+        <v>5142</v>
+      </c>
       <c r="G26">
-        <v>5142</v>
+        <v>265</v>
       </c>
       <c r="H26">
-        <v>265</v>
-      </c>
-      <c r="I26">
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3106,17 +3248,17 @@
       <c r="E27">
         <v>79</v>
       </c>
+      <c r="F27">
+        <v>6384</v>
+      </c>
       <c r="G27">
-        <v>6384</v>
+        <v>313</v>
       </c>
       <c r="H27">
-        <v>313</v>
-      </c>
-      <c r="I27">
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3132,17 +3274,17 @@
       <c r="E28">
         <v>65</v>
       </c>
+      <c r="F28">
+        <v>8351</v>
+      </c>
       <c r="G28">
-        <v>8351</v>
+        <v>362</v>
       </c>
       <c r="H28">
-        <v>362</v>
-      </c>
-      <c r="I28">
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3158,17 +3300,17 @@
       <c r="E29">
         <v>63</v>
       </c>
+      <c r="F29">
+        <v>10117</v>
+      </c>
       <c r="G29">
-        <v>10117</v>
+        <v>414</v>
       </c>
       <c r="H29">
-        <v>414</v>
-      </c>
-      <c r="I29">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3184,17 +3326,17 @@
       <c r="E30">
         <v>103</v>
       </c>
+      <c r="F30">
+        <v>11618</v>
+      </c>
       <c r="G30">
-        <v>11618</v>
+        <v>478</v>
       </c>
       <c r="H30">
-        <v>478</v>
-      </c>
-      <c r="I30">
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -3210,18 +3352,18 @@
       <c r="E31">
         <v>164</v>
       </c>
+      <c r="F31">
+        <v>13603</v>
+      </c>
       <c r="G31">
-        <v>13603</v>
+        <v>545</v>
       </c>
       <c r="H31">
-        <v>545</v>
-      </c>
-      <c r="I31">
-        <f>E31+I30</f>
+        <f>E31+H30</f>
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3237,18 +3379,18 @@
       <c r="E32">
         <v>179</v>
       </c>
+      <c r="F32">
+        <v>14982</v>
+      </c>
       <c r="G32">
-        <v>14982</v>
+        <v>608</v>
       </c>
       <c r="H32">
-        <v>608</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ref="I32:I38" si="3">E32+I31</f>
+        <f>E32+H31</f>
         <v>844</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -3264,18 +3406,18 @@
       <c r="E33">
         <v>167</v>
       </c>
+      <c r="F33">
+        <v>16902</v>
+      </c>
       <c r="G33">
-        <v>16902</v>
+        <v>681</v>
       </c>
       <c r="H33">
-        <v>681</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
+        <f>E33+H32</f>
         <v>1011</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3291,18 +3433,18 @@
       <c r="E34">
         <v>162</v>
       </c>
+      <c r="F34">
+        <v>18454</v>
+      </c>
       <c r="G34">
-        <v>18454</v>
+        <v>748</v>
       </c>
       <c r="H34">
-        <v>748</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
+        <f>E34+H33</f>
         <v>1173</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3318,18 +3460,18 @@
       <c r="E35">
         <v>171</v>
       </c>
+      <c r="F35">
+        <v>19558</v>
+      </c>
       <c r="G35">
-        <v>19558</v>
+        <v>820</v>
       </c>
       <c r="H35">
-        <v>820</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
+        <f>E35+H34</f>
         <v>1344</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
@@ -3345,24 +3487,24 @@
       <c r="E36">
         <v>538</v>
       </c>
+      <c r="F36">
+        <v>32994</v>
+      </c>
       <c r="G36">
-        <v>32994</v>
+        <v>1036</v>
       </c>
       <c r="H36">
-        <v>1036</v>
+        <f>E36+H35</f>
+        <v>1882</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>1882</v>
+        <v>12364</v>
       </c>
       <c r="J36">
-        <v>12364</v>
-      </c>
-      <c r="K36">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>33</v>
       </c>
@@ -3378,21 +3520,21 @@
       <c r="E37">
         <v>370</v>
       </c>
+      <c r="F37">
+        <v>35991</v>
+      </c>
       <c r="G37">
-        <v>35991</v>
+        <v>1016</v>
       </c>
       <c r="H37">
-        <v>1016</v>
+        <f>E37+H36</f>
+        <v>2252</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>2252</v>
-      </c>
-      <c r="J37">
         <v>14031</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3408,24 +3550,24 @@
       <c r="E38">
         <v>486</v>
       </c>
+      <c r="F38">
+        <v>37914</v>
+      </c>
       <c r="G38">
-        <v>37914</v>
+        <v>1123</v>
       </c>
       <c r="H38">
-        <v>1123</v>
+        <f>E38+H37</f>
+        <v>2738</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>2738</v>
+        <v>14953</v>
       </c>
       <c r="J38">
-        <v>14953</v>
-      </c>
-      <c r="K38">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3441,17 +3583,17 @@
       <c r="E39">
         <v>413</v>
       </c>
+      <c r="F39">
+        <v>39462</v>
+      </c>
       <c r="G39">
-        <v>39462</v>
+        <v>1233</v>
       </c>
       <c r="H39">
-        <v>1233</v>
-      </c>
-      <c r="I39">
         <v>2915</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3467,17 +3609,17 @@
       <c r="E40">
         <v>543</v>
       </c>
-      <c r="G40">
+      <c r="F40">
         <v>41152</v>
       </c>
+      <c r="G40" s="6">
+        <v>1309</v>
+      </c>
       <c r="H40" s="6">
-        <v>1309</v>
-      </c>
-      <c r="I40" s="6">
         <v>3458</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>37</v>
       </c>
@@ -3493,17 +3635,17 @@
       <c r="E41">
         <v>761</v>
       </c>
-      <c r="G41">
+      <c r="F41">
         <v>42752</v>
       </c>
+      <c r="G41" s="6">
+        <v>1381</v>
+      </c>
       <c r="H41" s="6">
-        <v>1381</v>
-      </c>
-      <c r="I41" s="6">
         <v>4219</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>38</v>
       </c>
@@ -3519,17 +3661,17 @@
       <c r="E42">
         <v>676</v>
       </c>
-      <c r="G42">
+      <c r="F42">
         <v>44412</v>
       </c>
+      <c r="G42" s="6">
+        <v>1497</v>
+      </c>
       <c r="H42" s="6">
-        <v>1497</v>
-      </c>
-      <c r="I42" s="6">
         <v>4895</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>39</v>
       </c>
@@ -3545,18 +3687,18 @@
       <c r="E43">
         <v>553</v>
       </c>
-      <c r="G43">
+      <c r="F43">
         <v>45027</v>
       </c>
-      <c r="H43" s="6">
+      <c r="G43" s="6">
         <v>1585</v>
       </c>
-      <c r="I43">
-        <f>J42+E43</f>
+      <c r="H43">
+        <f>I42+E43</f>
         <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>40</v>
       </c>
@@ -3572,17 +3714,17 @@
       <c r="E44">
         <v>766</v>
       </c>
-      <c r="G44">
+      <c r="F44">
         <v>45346</v>
       </c>
+      <c r="G44" s="6">
+        <v>1684</v>
+      </c>
       <c r="H44" s="6">
-        <v>1684</v>
-      </c>
-      <c r="I44" s="6">
         <v>6214</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>41</v>
       </c>
@@ -3598,17 +3740,17 @@
       <c r="E45">
         <v>992</v>
       </c>
-      <c r="G45">
+      <c r="F45">
         <v>45660</v>
       </c>
+      <c r="G45" s="6">
+        <v>1774</v>
+      </c>
       <c r="H45" s="6">
-        <v>1774</v>
-      </c>
-      <c r="I45" s="6">
         <v>7206</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
@@ -3624,41 +3766,95 @@
       <c r="E46">
         <v>965</v>
       </c>
-      <c r="G46">
+      <c r="F46">
         <v>46201</v>
       </c>
+      <c r="G46" s="6">
+        <v>1856</v>
+      </c>
       <c r="H46" s="6">
-        <v>1856</v>
-      </c>
-      <c r="I46" s="6">
         <v>8171</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <v>43884</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C47">
+        <v>348</v>
+      </c>
+      <c r="D47">
+        <v>131</v>
+      </c>
+      <c r="E47">
+        <v>772</v>
+      </c>
+      <c r="F47">
+        <v>46607</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1987</v>
+      </c>
+      <c r="H47" s="6">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>43885</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>464</v>
+      </c>
+      <c r="D48">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <v>1391</v>
+      </c>
+      <c r="F48">
+        <v>47071</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2043</v>
+      </c>
+      <c r="H48" s="6">
+        <v>10337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="1">
         <v>43886</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>370</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>1456</v>
+      </c>
+      <c r="F49">
+        <v>47441</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2085</v>
+      </c>
+      <c r="H49" s="6">
+        <v>11793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
@@ -3666,7 +3862,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
@@ -3674,7 +3870,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
@@ -3682,7 +3878,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
@@ -3702,10 +3898,10 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42:G46"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3756,6 +3952,9 @@
       <c r="P1" t="s">
         <v>48</v>
       </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
@@ -3879,6 +4078,9 @@
       <c r="P13">
         <v>12</v>
       </c>
+      <c r="Q13">
+        <v>239</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -3911,6 +4113,9 @@
       <c r="P14">
         <v>23</v>
       </c>
+      <c r="Q14">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -3943,6 +4148,9 @@
       <c r="P15">
         <v>24</v>
       </c>
+      <c r="Q15">
+        <v>399</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -3975,6 +4183,9 @@
       <c r="P16">
         <v>23</v>
       </c>
+      <c r="Q16">
+        <v>494</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -4007,6 +4218,9 @@
       <c r="P17">
         <v>57</v>
       </c>
+      <c r="Q17">
+        <v>658</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -4100,6 +4314,9 @@
       <c r="P20">
         <v>127</v>
       </c>
+      <c r="Q20">
+        <v>2567</v>
+      </c>
       <c r="R20">
         <v>31934</v>
       </c>
@@ -4138,6 +4355,9 @@
       <c r="P21">
         <v>228</v>
       </c>
+      <c r="Q21">
+        <v>3349</v>
+      </c>
       <c r="R21">
         <v>31639</v>
       </c>
@@ -4176,6 +4396,9 @@
       <c r="P22">
         <v>277</v>
       </c>
+      <c r="Q22">
+        <v>4334</v>
+      </c>
       <c r="R22">
         <v>32309</v>
       </c>
@@ -4214,6 +4437,9 @@
       <c r="P23">
         <v>290</v>
       </c>
+      <c r="Q23">
+        <v>5486</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -4246,6 +4472,9 @@
       <c r="P24">
         <v>338</v>
       </c>
+      <c r="Q24">
+        <v>6738</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -4284,6 +4513,9 @@
       <c r="P25">
         <v>444</v>
       </c>
+      <c r="Q25">
+        <v>8565</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -4322,6 +4554,9 @@
       <c r="P26">
         <v>478</v>
       </c>
+      <c r="Q26">
+        <v>9618</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -4360,6 +4595,9 @@
       <c r="P27">
         <v>576</v>
       </c>
+      <c r="Q27">
+        <v>10990</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -4398,6 +4636,9 @@
       <c r="P28">
         <v>711</v>
       </c>
+      <c r="Q28">
+        <v>12627</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -4436,6 +4677,9 @@
       <c r="P29">
         <v>756</v>
       </c>
+      <c r="Q29">
+        <v>14314</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -4474,6 +4718,9 @@
       <c r="P30">
         <v>841</v>
       </c>
+      <c r="Q30">
+        <v>15804</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -4512,6 +4759,9 @@
       <c r="P31">
         <v>1007</v>
       </c>
+      <c r="Q31">
+        <v>19835</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -4550,8 +4800,11 @@
       <c r="P32">
         <v>1154</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q32">
+        <v>20993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -4588,8 +4841,11 @@
       <c r="P33">
         <v>1236</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33">
+        <v>22160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -4626,8 +4882,11 @@
       <c r="P34">
         <v>1298</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q34">
+        <v>25087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4667,8 +4926,11 @@
       <c r="P35">
         <v>1517</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35">
+        <v>26121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4715,8 +4977,11 @@
       <c r="P36">
         <v>1437</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>33</v>
       </c>
@@ -4736,7 +5001,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G46" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G49" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -4766,8 +5031,11 @@
       <c r="P37">
         <v>1685</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q37">
+        <v>36719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>34</v>
       </c>
@@ -4814,8 +5082,11 @@
       <c r="P38">
         <v>1876</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38">
+        <v>38107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>35</v>
       </c>
@@ -4856,8 +5127,11 @@
       <c r="P39">
         <v>1957</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>36</v>
       </c>
@@ -4895,8 +5169,11 @@
       <c r="P40">
         <v>1773</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q40">
+        <v>40814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>37</v>
       </c>
@@ -4934,8 +5211,11 @@
       <c r="P41">
         <v>1853</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q41">
+        <v>41957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>38</v>
       </c>
@@ -4973,8 +5253,11 @@
       <c r="P42">
         <v>1957</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q42">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>39</v>
       </c>
@@ -5015,8 +5298,11 @@
       <c r="P43">
         <v>2050</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q43">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>40</v>
       </c>
@@ -5055,8 +5341,11 @@
       <c r="P44">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q44">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>41</v>
       </c>
@@ -5094,8 +5383,11 @@
       <c r="P45">
         <v>2492</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q45">
+        <v>47647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
@@ -5133,32 +5425,137 @@
       <c r="P46">
         <v>1845</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q46">
+        <v>40127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="1">
         <v>43884</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C47">
+        <v>398</v>
+      </c>
+      <c r="D47">
+        <v>149</v>
+      </c>
+      <c r="E47">
+        <v>1439</v>
+      </c>
+      <c r="F47">
+        <v>450</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>-998</v>
+      </c>
+      <c r="L47">
+        <v>64287</v>
+      </c>
+      <c r="M47">
+        <v>2495</v>
+      </c>
+      <c r="N47">
+        <v>16738</v>
+      </c>
+      <c r="O47">
+        <v>7776</v>
+      </c>
+      <c r="P47">
+        <v>1654</v>
+      </c>
+      <c r="Q47">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>43885</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>499</v>
+      </c>
+      <c r="D48">
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <v>2116</v>
+      </c>
+      <c r="F48">
+        <v>373</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>-755</v>
+      </c>
+      <c r="L48">
+        <v>64786</v>
+      </c>
+      <c r="M48">
+        <v>2563</v>
+      </c>
+      <c r="N48">
+        <v>18854</v>
+      </c>
+      <c r="O48">
+        <v>7090</v>
+      </c>
+      <c r="P48">
+        <v>1585</v>
+      </c>
+      <c r="Q48">
+        <v>37896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" s="1">
         <v>43886</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>401</v>
+      </c>
+      <c r="D49">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>2058</v>
+      </c>
+      <c r="F49">
+        <v>311</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>-350</v>
+      </c>
+      <c r="L49">
+        <v>65187</v>
+      </c>
+      <c r="M49">
+        <v>2615</v>
+      </c>
+      <c r="N49">
+        <v>20912</v>
+      </c>
+      <c r="O49">
+        <v>6840</v>
+      </c>
+      <c r="P49">
+        <v>1485</v>
+      </c>
+      <c r="Q49">
+        <v>36242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
@@ -5166,7 +5563,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
@@ -5174,7 +5571,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
@@ -5182,7 +5579,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
@@ -5190,7 +5587,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>50</v>
       </c>
@@ -5198,7 +5595,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>51</v>
       </c>
@@ -5206,7 +5603,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52</v>
       </c>
@@ -5214,7 +5611,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>53</v>
       </c>
@@ -5222,7 +5619,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>54</v>
       </c>
@@ -5230,12 +5627,12 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>56</v>
       </c>
@@ -5251,11 +5648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6491,18 +6888,99 @@
       <c r="B47" s="5">
         <v>43884</v>
       </c>
+      <c r="C47">
+        <v>409</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+      <c r="E47">
+        <v>1846</v>
+      </c>
+      <c r="F47">
+        <v>-1053</v>
+      </c>
+      <c r="G47">
+        <v>620</v>
+      </c>
+      <c r="I47">
+        <v>77150</v>
+      </c>
+      <c r="J47">
+        <v>2592</v>
+      </c>
+      <c r="K47">
+        <v>24734</v>
+      </c>
+      <c r="L47">
+        <v>9915</v>
+      </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48" s="5">
         <v>43885</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>508</v>
+      </c>
+      <c r="D48">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>2589</v>
+      </c>
+      <c r="F48">
+        <v>-789</v>
+      </c>
+      <c r="G48">
+        <v>530</v>
+      </c>
+      <c r="I48">
+        <v>77658</v>
+      </c>
+      <c r="J48">
+        <v>2663</v>
+      </c>
+      <c r="K48">
+        <v>27323</v>
+      </c>
+      <c r="L48">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49" s="5">
         <v>43886</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>406</v>
+      </c>
+      <c r="D49">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>2422</v>
+      </c>
+      <c r="F49">
+        <v>-374</v>
+      </c>
+      <c r="G49">
+        <v>439</v>
+      </c>
+      <c r="I49">
+        <v>78064</v>
+      </c>
+      <c r="J49">
+        <v>2715</v>
+      </c>
+      <c r="K49">
+        <v>29745</v>
+      </c>
+      <c r="L49">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50" s="5">
         <v>43887</v>
       </c>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfwang\Dropbox\2019 n-CoV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA19F832-9FCA-424B-9E33-58A7DF12227B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19035" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
@@ -17,28 +18,36 @@
     <sheet name="china" sheetId="4" r:id="rId3"/>
     <sheet name="说明" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hfwang</author>
   </authors>
   <commentList>
-    <comment ref="E36" authorId="0" shapeId="0">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -47,7 +56,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -57,7 +66,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -66,13 +75,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="0" shapeId="0">
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -81,7 +90,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -91,17 +100,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">没有发布治愈的城市细分
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>没有发布治愈的城市细分</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0" shapeId="0">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -469,13 +488,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -484,7 +503,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -494,7 +513,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -503,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0" shapeId="0">
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -543,18 +562,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hfwang</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -564,18 +583,78 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-湖北的新增重症是现有重症+危重症减去昨天重症+危重症
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北的新增重症是现有重症</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>危重症减去昨天重症</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>危重症</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -628,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0">
+    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -655,13 +734,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0" shapeId="0">
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -670,7 +749,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -680,17 +759,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">国家卫健委第一次公布湖北省新增疑似病例
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>国家卫健委第一次公布湖北省新增疑似病例</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -762,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="0" shapeId="0">
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -797,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -832,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G36" authorId="0" shapeId="0">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -868,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0" shapeId="0">
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -903,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q36" authorId="0" shapeId="0">
+    <comment ref="Q36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -938,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G37" authorId="0" shapeId="0">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M37" authorId="0" shapeId="0">
+    <comment ref="M37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N37" authorId="0" shapeId="0">
+    <comment ref="N37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1136,13 +1225,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1151,7 +1240,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1161,7 +1250,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -1171,7 +1260,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1180,17 +1269,67 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">倒推要加回426。 湖北省此前的发布值为349
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>倒推要加回</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>426</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北省此前的发布值为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">349
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="L43" authorId="0" shapeId="0">
+    <comment ref="L43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N43" authorId="0" shapeId="0">
+    <comment ref="N43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1259,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1294,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0" shapeId="0">
+    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0">
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1364,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0" shapeId="0">
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L47" authorId="0" shapeId="0">
+    <comment ref="L47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1447,12 +1586,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hfwang</author>
   </authors>
   <commentList>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0">
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J37" authorId="0" shapeId="0">
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1588,7 +1727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1623,7 +1762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H43" authorId="0" shapeId="0">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1731,13 +1870,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="0" shapeId="0">
+    <comment ref="H44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1746,7 +1885,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1756,23 +1895,33 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">订正前值为75465
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>订正前值为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">75465
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J44" authorId="0" shapeId="0">
+    <comment ref="J44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1781,7 +1930,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1791,23 +1940,33 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">订正前值为18264
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>订正前值为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">18264
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="0" shapeId="0">
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1816,7 +1975,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1826,22 +1985,42 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>安徽核减1例</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>安徽核减</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>例</t>
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0">
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1850,7 +2029,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1860,12 +2039,22 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>湖北订正重复报告病例195</t>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>湖北订正重复报告病例</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>195</t>
         </r>
       </text>
     </comment>
@@ -2022,7 +2211,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2033,7 +2222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2106,22 +2295,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2130,13 +2319,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2161,7 +2350,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2170,7 +2359,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2187,6 +2376,34 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2227,14 +2444,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2518,22 +2735,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2568,17 +2785,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2604,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2630,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2656,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2682,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2708,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2725,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <f>C9+F8</f>
+        <f t="shared" ref="F9:H11" si="0">C9+F8</f>
         <v>45</v>
       </c>
       <c r="G9">
-        <f>D9+G8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H9">
-        <f>E9+H8</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2754,19 +2971,19 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <f>C10+F9</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="G10">
-        <f>D10+G9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H10">
-        <f>E10+H9</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2783,19 +3000,19 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <f>C11+F10</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="G11">
-        <f>D11+G10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f>E11+H10</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2822,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2849,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2878,7 +3095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2907,7 +3124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2933,7 +3150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2959,7 +3176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2976,19 +3193,19 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <f>F17+C18</f>
+        <f t="shared" ref="F18:H22" si="1">F17+C18</f>
         <v>618</v>
       </c>
       <c r="G18">
-        <f>G17+D18</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H18">
-        <f>H17+E18</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3005,19 +3222,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f>F18+C19</f>
+        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="G19">
-        <f>G18+D19</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="H19">
-        <f>H18+E19</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>16</v>
       </c>
@@ -3034,15 +3251,15 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>F19+C20</f>
+        <f t="shared" si="1"/>
         <v>1590</v>
       </c>
       <c r="G20">
-        <f>G19+D20</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="H20" s="6">
-        <f>H19+E20</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I20" s="6"/>
@@ -3055,7 +3272,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>17</v>
       </c>
@@ -3072,15 +3289,15 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>F20+C21</f>
+        <f t="shared" si="1"/>
         <v>1905</v>
       </c>
       <c r="G21">
-        <f>G20+D21</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="H21" s="6">
-        <f>H20+E21</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="I21" s="6"/>
@@ -3093,7 +3310,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3110,15 +3327,15 @@
         <v>7</v>
       </c>
       <c r="F22">
-        <f>F21+C22</f>
+        <f t="shared" si="1"/>
         <v>2261</v>
       </c>
       <c r="G22">
-        <f>G21+D22</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="H22">
-        <f>H21+E22</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="L22">
@@ -3128,7 +3345,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>19</v>
       </c>
@@ -3154,7 +3371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3180,7 +3397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3206,7 +3423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>22</v>
       </c>
@@ -3232,7 +3449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3258,7 +3475,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3284,7 +3501,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>25</v>
       </c>
@@ -3310,7 +3527,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>26</v>
       </c>
@@ -3336,7 +3553,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>27</v>
       </c>
@@ -3359,11 +3576,11 @@
         <v>545</v>
       </c>
       <c r="H31">
-        <f>E31+H30</f>
+        <f t="shared" ref="H31:H38" si="2">E31+H30</f>
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>28</v>
       </c>
@@ -3386,11 +3603,11 @@
         <v>608</v>
       </c>
       <c r="H32">
-        <f>E32+H31</f>
+        <f t="shared" si="2"/>
         <v>844</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>29</v>
       </c>
@@ -3413,11 +3630,11 @@
         <v>681</v>
       </c>
       <c r="H33">
-        <f>E33+H32</f>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3440,11 +3657,11 @@
         <v>748</v>
       </c>
       <c r="H34">
-        <f>E34+H33</f>
+        <f t="shared" si="2"/>
         <v>1173</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3467,11 +3684,11 @@
         <v>820</v>
       </c>
       <c r="H35">
-        <f>E35+H34</f>
+        <f t="shared" si="2"/>
         <v>1344</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>32</v>
       </c>
@@ -3494,7 +3711,7 @@
         <v>1036</v>
       </c>
       <c r="H36">
-        <f>E36+H35</f>
+        <f t="shared" si="2"/>
         <v>1882</v>
       </c>
       <c r="I36">
@@ -3504,7 +3721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>33</v>
       </c>
@@ -3527,14 +3744,14 @@
         <v>1016</v>
       </c>
       <c r="H37">
-        <f>E37+H36</f>
+        <f t="shared" si="2"/>
         <v>2252</v>
       </c>
       <c r="I37">
         <v>14031</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3557,7 +3774,7 @@
         <v>1123</v>
       </c>
       <c r="H38">
-        <f>E38+H37</f>
+        <f t="shared" si="2"/>
         <v>2738</v>
       </c>
       <c r="I38">
@@ -3567,7 +3784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3593,7 +3810,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3619,7 +3836,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>37</v>
       </c>
@@ -3645,7 +3862,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>38</v>
       </c>
@@ -3671,7 +3888,7 @@
         <v>4895</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>39</v>
       </c>
@@ -3698,7 +3915,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>40</v>
       </c>
@@ -3724,7 +3941,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>41</v>
       </c>
@@ -3750,7 +3967,7 @@
         <v>7206</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>42</v>
       </c>
@@ -3776,7 +3993,7 @@
         <v>8171</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>43</v>
       </c>
@@ -3802,7 +4019,7 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>44</v>
       </c>
@@ -3828,7 +4045,7 @@
         <v>10337</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>45</v>
       </c>
@@ -3854,31 +4071,85 @@
         <v>11793</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>43887</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <v>383</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>1535</v>
+      </c>
+      <c r="F50">
+        <v>47824</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2104</v>
+      </c>
+      <c r="H50" s="6">
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="1">
         <v>43888</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <v>313</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>2498</v>
+      </c>
+      <c r="F51">
+        <v>48137</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2132</v>
+      </c>
+      <c r="H51" s="6">
+        <v>15826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <v>43889</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C52">
+        <v>420</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>1726</v>
+      </c>
+      <c r="F52">
+        <v>48557</v>
+      </c>
+      <c r="G52" s="6">
+        <v>2169</v>
+      </c>
+      <c r="H52" s="6">
+        <v>17552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>49</v>
       </c>
@@ -3894,22 +4165,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="C1" t="s">
         <v>17</v>
       </c>
@@ -3962,17 +4234,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3980,7 +4252,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3988,7 +4260,7 @@
         <v>43842</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3996,7 +4268,7 @@
         <v>43843</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4004,7 +4276,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4012,7 +4284,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4020,7 +4292,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4028,7 +4300,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4036,7 +4308,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4044,7 +4316,7 @@
         <v>43849</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4082,7 +4354,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4117,7 +4389,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>11</v>
       </c>
@@ -4152,7 +4424,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4187,7 +4459,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>13</v>
       </c>
@@ -4222,7 +4494,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>14</v>
       </c>
@@ -4251,7 +4523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>15</v>
       </c>
@@ -4283,7 +4555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4324,7 +4596,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4365,7 +4637,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4406,7 +4678,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>19</v>
       </c>
@@ -4441,7 +4713,7 @@
         <v>5486</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>20</v>
       </c>
@@ -4476,7 +4748,7 @@
         <v>6738</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>21</v>
       </c>
@@ -4517,7 +4789,7 @@
         <v>8565</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>22</v>
       </c>
@@ -4558,7 +4830,7 @@
         <v>9618</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>23</v>
       </c>
@@ -4599,7 +4871,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>24</v>
       </c>
@@ -4640,7 +4912,7 @@
         <v>12627</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>25</v>
       </c>
@@ -4681,7 +4953,7 @@
         <v>14314</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>26</v>
       </c>
@@ -4722,7 +4994,7 @@
         <v>15804</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>27</v>
       </c>
@@ -4763,7 +5035,7 @@
         <v>19835</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>28</v>
       </c>
@@ -4804,7 +5076,7 @@
         <v>20993</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>29</v>
       </c>
@@ -4845,7 +5117,7 @@
         <v>22160</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>30</v>
       </c>
@@ -4886,7 +5158,7 @@
         <v>25087</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4930,7 +5202,7 @@
         <v>26121</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>32</v>
       </c>
@@ -4981,7 +5253,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>33</v>
       </c>
@@ -5001,7 +5273,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G49" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G52" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -5035,7 +5307,7 @@
         <v>36719</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>34</v>
       </c>
@@ -5086,7 +5358,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>35</v>
       </c>
@@ -5131,7 +5403,7 @@
         <v>39447</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>36</v>
       </c>
@@ -5173,7 +5445,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>37</v>
       </c>
@@ -5215,7 +5487,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>38</v>
       </c>
@@ -5257,7 +5529,7 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>39</v>
       </c>
@@ -5302,7 +5574,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>40</v>
       </c>
@@ -5345,7 +5617,7 @@
         <v>42056</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>41</v>
       </c>
@@ -5387,7 +5659,7 @@
         <v>47647</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>42</v>
       </c>
@@ -5429,7 +5701,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>43</v>
       </c>
@@ -5471,7 +5743,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>44</v>
       </c>
@@ -5513,7 +5785,7 @@
         <v>37896</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>45</v>
       </c>
@@ -5555,31 +5827,133 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>43887</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <v>409</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>2288</v>
+      </c>
+      <c r="F50">
+        <v>403</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>-341</v>
+      </c>
+      <c r="L50">
+        <v>65596</v>
+      </c>
+      <c r="M50">
+        <v>2641</v>
+      </c>
+      <c r="N50">
+        <v>23200</v>
+      </c>
+      <c r="O50">
+        <v>6581</v>
+      </c>
+      <c r="P50">
+        <v>1403</v>
+      </c>
+      <c r="Q50">
+        <v>34978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" s="1">
         <v>43888</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <v>318</v>
+      </c>
+      <c r="D51">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>3203</v>
+      </c>
+      <c r="F51">
+        <v>332</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>-351</v>
+      </c>
+      <c r="L51">
+        <v>65914</v>
+      </c>
+      <c r="M51">
+        <v>2682</v>
+      </c>
+      <c r="N51">
+        <v>26403</v>
+      </c>
+      <c r="O51">
+        <v>6270</v>
+      </c>
+      <c r="P51">
+        <v>1363</v>
+      </c>
+      <c r="Q51">
+        <v>32878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" s="1">
         <v>43889</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C52">
+        <v>423</v>
+      </c>
+      <c r="D52">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <v>2492</v>
+      </c>
+      <c r="F52">
+        <v>159</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>-263</v>
+      </c>
+      <c r="L52">
+        <v>66337</v>
+      </c>
+      <c r="M52">
+        <v>2727</v>
+      </c>
+      <c r="N52">
+        <v>28895</v>
+      </c>
+      <c r="O52">
+        <v>6056</v>
+      </c>
+      <c r="P52">
+        <v>1314</v>
+      </c>
+      <c r="Q52">
+        <v>31064</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>49</v>
       </c>
@@ -5587,7 +5961,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>50</v>
       </c>
@@ -5595,7 +5969,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>51</v>
       </c>
@@ -5603,7 +5977,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>52</v>
       </c>
@@ -5611,7 +5985,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>53</v>
       </c>
@@ -5619,7 +5993,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>54</v>
       </c>
@@ -5627,12 +6001,12 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>56</v>
       </c>
@@ -5645,22 +6019,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47:L49"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12">
       <c r="C1" t="s">
         <v>17</v>
       </c>
@@ -5692,57 +6066,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12">
       <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12">
       <c r="B4" s="5">
         <v>43841</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
       <c r="B5" s="5">
         <v>43842</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12">
       <c r="B6" s="5">
         <v>43843</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="B7" s="5">
         <v>43844</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="5">
         <v>43845</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="5">
         <v>43846</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="B10" s="5">
         <v>43847</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="B11" s="5">
         <v>43848</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="B12" s="5">
         <v>43849</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="B13" s="5">
         <v>43850</v>
       </c>
@@ -5753,7 +6127,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="B14" s="5">
         <v>43851</v>
       </c>
@@ -5776,7 +6150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="B15" s="5">
         <v>43852</v>
       </c>
@@ -5805,7 +6179,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12">
       <c r="B16" s="5">
         <v>43853</v>
       </c>
@@ -5837,7 +6211,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="5">
         <v>43854</v>
       </c>
@@ -5869,7 +6243,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="5">
         <v>43855</v>
       </c>
@@ -5904,7 +6278,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="5">
         <v>43856</v>
       </c>
@@ -5939,7 +6313,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="5">
         <v>43857</v>
       </c>
@@ -5974,7 +6348,7 @@
         <v>6973</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="B21" s="5">
         <v>43858</v>
       </c>
@@ -6009,7 +6383,7 @@
         <v>9239</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="B22" s="5">
         <v>43859</v>
       </c>
@@ -6044,7 +6418,7 @@
         <v>12167</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="B23" s="5">
         <v>43860</v>
       </c>
@@ -6079,7 +6453,7 @@
         <v>15238</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="5">
         <v>43861</v>
       </c>
@@ -6114,7 +6488,7 @@
         <v>17988</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="5">
         <v>43862</v>
       </c>
@@ -6149,7 +6523,7 @@
         <v>19544</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="5">
         <v>43863</v>
       </c>
@@ -6184,7 +6558,7 @@
         <v>21558</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="5">
         <v>43864</v>
       </c>
@@ -6219,7 +6593,7 @@
         <v>23214</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="5">
         <v>43865</v>
       </c>
@@ -6254,7 +6628,7 @@
         <v>23260</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="5">
         <v>43866</v>
       </c>
@@ -6289,7 +6663,7 @@
         <v>24702</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="5">
         <v>43867</v>
       </c>
@@ -6324,7 +6698,7 @@
         <v>26359</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="5">
         <v>43868</v>
       </c>
@@ -6359,7 +6733,7 @@
         <v>27657</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="5">
         <v>43869</v>
       </c>
@@ -6394,7 +6768,7 @@
         <v>28942</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12">
       <c r="B33" s="5">
         <v>43870</v>
       </c>
@@ -6429,7 +6803,7 @@
         <v>23589</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12">
       <c r="B34" s="5">
         <v>43871</v>
       </c>
@@ -6464,7 +6838,7 @@
         <v>21675</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12">
       <c r="B35" s="5">
         <v>43872</v>
       </c>
@@ -6499,7 +6873,7 @@
         <v>16067</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12">
       <c r="B36" s="5">
         <v>43873</v>
       </c>
@@ -6534,7 +6908,7 @@
         <v>13435</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12">
       <c r="B37" s="5">
         <v>43874</v>
       </c>
@@ -6569,7 +6943,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12">
       <c r="B38" s="5">
         <v>43875</v>
       </c>
@@ -6604,7 +6978,7 @@
         <v>8969</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12">
       <c r="B39" s="5">
         <v>43876</v>
       </c>
@@ -6639,7 +7013,7 @@
         <v>8228</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12">
       <c r="B40" s="5">
         <v>43877</v>
       </c>
@@ -6674,7 +7048,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12">
       <c r="B41" s="5">
         <v>43878</v>
       </c>
@@ -6709,7 +7083,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12">
       <c r="B42" s="5">
         <v>43879</v>
       </c>
@@ -6744,7 +7118,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12">
       <c r="B43" s="5">
         <v>43880</v>
       </c>
@@ -6779,7 +7153,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12">
       <c r="B44" s="5">
         <v>43881</v>
       </c>
@@ -6814,7 +7188,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12">
       <c r="B45" s="5">
         <v>43882</v>
       </c>
@@ -6849,7 +7223,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12">
       <c r="B46" s="5">
         <v>43883</v>
       </c>
@@ -6884,7 +7258,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12">
       <c r="B47" s="5">
         <v>43884</v>
       </c>
@@ -6903,20 +7277,23 @@
       <c r="G47">
         <v>620</v>
       </c>
-      <c r="I47">
+      <c r="H47" s="8">
         <v>77150</v>
       </c>
-      <c r="J47">
+      <c r="I47" s="8">
         <v>2592</v>
       </c>
-      <c r="K47">
+      <c r="J47" s="8">
         <v>24734</v>
       </c>
-      <c r="L47">
+      <c r="K47" s="8">
         <v>9915</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L47" s="8">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
       <c r="B48" s="5">
         <v>43885</v>
       </c>
@@ -6935,20 +7312,23 @@
       <c r="G48">
         <v>530</v>
       </c>
-      <c r="I48">
+      <c r="H48" s="8">
         <v>77658</v>
       </c>
-      <c r="J48">
+      <c r="I48" s="8">
         <v>2663</v>
       </c>
-      <c r="K48">
+      <c r="J48" s="8">
         <v>27323</v>
       </c>
-      <c r="L48">
+      <c r="K48" s="8">
         <v>9126</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L48" s="8">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
       <c r="B49" s="5">
         <v>43886</v>
       </c>
@@ -6967,23 +7347,265 @@
       <c r="G49">
         <v>439</v>
       </c>
-      <c r="I49">
+      <c r="H49" s="8">
         <v>78064</v>
       </c>
-      <c r="J49">
+      <c r="I49" s="8">
         <v>2715</v>
       </c>
-      <c r="K49">
+      <c r="J49" s="8">
         <v>29745</v>
       </c>
-      <c r="L49">
+      <c r="K49" s="8">
         <v>8752</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L49" s="8">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
       <c r="B50" s="5">
         <v>43887</v>
       </c>
+      <c r="C50">
+        <v>433</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>2750</v>
+      </c>
+      <c r="F50" s="6">
+        <v>-406</v>
+      </c>
+      <c r="G50" s="6">
+        <v>508</v>
+      </c>
+      <c r="H50" s="6">
+        <v>78497</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2744</v>
+      </c>
+      <c r="J50" s="6">
+        <v>32495</v>
+      </c>
+      <c r="K50" s="6">
+        <v>8346</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="5">
+        <v>43888</v>
+      </c>
+      <c r="C51">
+        <v>327</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>3622</v>
+      </c>
+      <c r="F51" s="6">
+        <v>-394</v>
+      </c>
+      <c r="G51" s="6">
+        <v>452</v>
+      </c>
+      <c r="H51" s="6">
+        <v>78824</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2788</v>
+      </c>
+      <c r="J51" s="6">
+        <v>36117</v>
+      </c>
+      <c r="K51" s="6">
+        <v>7952</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="5">
+        <v>43889</v>
+      </c>
+      <c r="C52">
+        <v>427</v>
+      </c>
+      <c r="D52">
+        <v>47</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2885</v>
+      </c>
+      <c r="F52" s="6">
+        <v>-288</v>
+      </c>
+      <c r="G52" s="6">
+        <v>248</v>
+      </c>
+      <c r="H52" s="6">
+        <v>79251</v>
+      </c>
+      <c r="I52" s="6">
+        <v>2835</v>
+      </c>
+      <c r="J52" s="6">
+        <v>39002</v>
+      </c>
+      <c r="K52" s="6">
+        <v>7664</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="5">
+        <v>43890</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="5">
+        <v>43891</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="5">
+        <v>43892</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="5:11">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="5:11">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6993,33 +7615,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView zoomScale="162" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>43882</v>
       </c>
@@ -7027,7 +7647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>43882</v>
       </c>
@@ -7035,7 +7655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>43880</v>
       </c>
@@ -7043,7 +7663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -7051,7 +7671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>43875</v>
       </c>
@@ -7059,7 +7679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>43874</v>
       </c>
@@ -7067,7 +7687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>43873</v>
       </c>
@@ -7075,7 +7695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="7">
         <v>43853</v>
       </c>
@@ -7083,7 +7703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>43852</v>
       </c>
@@ -7091,7 +7711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>43849</v>
       </c>
@@ -7099,7 +7719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>43841</v>
       </c>
@@ -7107,7 +7727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>43835</v>
       </c>
@@ -7115,7 +7735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>43833</v>
       </c>
@@ -7123,7 +7743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>44196</v>
       </c>
@@ -7131,7 +7751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -7139,7 +7759,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA19F832-9FCA-424B-9E33-58A7DF12227B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE0F2D-ED1B-AA43-99D8-0DE8A6CF23CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2736,13 +2736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4156,6 +4156,110 @@
       <c r="B53" s="1">
         <v>43890</v>
       </c>
+      <c r="C53">
+        <v>565</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>1675</v>
+      </c>
+      <c r="F53">
+        <v>49122</v>
+      </c>
+      <c r="G53" s="6">
+        <v>2195</v>
+      </c>
+      <c r="H53" s="6">
+        <v>19227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C54">
+        <v>193</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>1958</v>
+      </c>
+      <c r="F54">
+        <v>49315</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2227</v>
+      </c>
+      <c r="H54" s="6">
+        <v>21185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C55">
+        <v>111</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>1846</v>
+      </c>
+      <c r="F55">
+        <v>49426</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2251</v>
+      </c>
+      <c r="H55" s="6">
+        <v>23031</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C56">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>1859</v>
+      </c>
+      <c r="F56">
+        <v>49540</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2282</v>
+      </c>
+      <c r="H56" s="6">
+        <v>24890</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43894</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4166,13 +4270,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5273,7 +5377,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G52" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G56" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -5960,6 +6064,40 @@
       <c r="B53" s="1">
         <v>43890</v>
       </c>
+      <c r="C53">
+        <v>570</v>
+      </c>
+      <c r="D53">
+        <v>34</v>
+      </c>
+      <c r="E53">
+        <v>2292</v>
+      </c>
+      <c r="F53">
+        <v>64</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>-263</v>
+      </c>
+      <c r="L53">
+        <v>66907</v>
+      </c>
+      <c r="M53">
+        <v>2761</v>
+      </c>
+      <c r="N53">
+        <v>31187</v>
+      </c>
+      <c r="O53">
+        <v>5858</v>
+      </c>
+      <c r="P53">
+        <v>1249</v>
+      </c>
+      <c r="Q53">
+        <v>28912</v>
+      </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54">
@@ -5968,6 +6106,40 @@
       <c r="B54" s="1">
         <v>43891</v>
       </c>
+      <c r="C54">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>42</v>
+      </c>
+      <c r="E54">
+        <v>2570</v>
+      </c>
+      <c r="F54">
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>-235</v>
+      </c>
+      <c r="L54">
+        <v>67103</v>
+      </c>
+      <c r="M54">
+        <v>2803</v>
+      </c>
+      <c r="N54">
+        <v>33757</v>
+      </c>
+      <c r="O54">
+        <v>5646</v>
+      </c>
+      <c r="P54">
+        <v>1226</v>
+      </c>
+      <c r="Q54">
+        <v>26901</v>
+      </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55">
@@ -5976,6 +6148,40 @@
       <c r="B55" s="1">
         <v>43892</v>
       </c>
+      <c r="C55">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>2410</v>
+      </c>
+      <c r="F55">
+        <v>64</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>-279</v>
+      </c>
+      <c r="L55">
+        <v>67217</v>
+      </c>
+      <c r="M55">
+        <v>2834</v>
+      </c>
+      <c r="N55">
+        <v>36167</v>
+      </c>
+      <c r="O55">
+        <v>5407</v>
+      </c>
+      <c r="P55">
+        <v>1186</v>
+      </c>
+      <c r="Q55">
+        <v>25050</v>
+      </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56">
@@ -5984,6 +6190,40 @@
       <c r="B56" s="1">
         <v>43893</v>
       </c>
+      <c r="C56">
+        <v>115</v>
+      </c>
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>2389</v>
+      </c>
+      <c r="F56">
+        <v>52</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>-361</v>
+      </c>
+      <c r="L56">
+        <v>67332</v>
+      </c>
+      <c r="M56">
+        <v>2871</v>
+      </c>
+      <c r="N56">
+        <v>38556</v>
+      </c>
+      <c r="O56">
+        <v>5095</v>
+      </c>
+      <c r="P56">
+        <v>1137</v>
+      </c>
+      <c r="Q56">
+        <v>23039</v>
+      </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57">
@@ -6005,10 +6245,48 @@
       <c r="A59">
         <v>55</v>
       </c>
+      <c r="B59" s="1">
+        <v>43896</v>
+      </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60">
         <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43901</v>
       </c>
     </row>
   </sheetData>
@@ -6023,10 +6301,10 @@
   <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView zoomScale="167" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7277,19 +7555,19 @@
       <c r="G47">
         <v>620</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <v>77150</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <v>2592</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="6">
         <v>24734</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="6">
         <v>9915</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="6">
         <v>3434</v>
       </c>
     </row>
@@ -7312,19 +7590,19 @@
       <c r="G48">
         <v>530</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <v>77658</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="6">
         <v>2663</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="6">
         <v>27323</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="6">
         <v>9126</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>2824</v>
       </c>
     </row>
@@ -7347,19 +7625,19 @@
       <c r="G49">
         <v>439</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <v>78064</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="6">
         <v>2715</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="6">
         <v>29745</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="6">
         <v>8752</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="6">
         <v>2491</v>
       </c>
     </row>
@@ -7472,52 +7750,146 @@
       <c r="B53" s="5">
         <v>43890</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="C53">
+        <v>573</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2623</v>
+      </c>
+      <c r="F53" s="6">
+        <v>-299</v>
+      </c>
+      <c r="G53" s="6">
+        <v>132</v>
+      </c>
+      <c r="H53" s="6">
+        <v>79824</v>
+      </c>
+      <c r="I53" s="6">
+        <v>2870</v>
+      </c>
+      <c r="J53" s="6">
+        <v>41625</v>
+      </c>
+      <c r="K53" s="6">
+        <v>7365</v>
+      </c>
+      <c r="L53" s="6">
+        <v>851</v>
+      </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" s="5">
         <v>43891</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="C54">
+        <v>202</v>
+      </c>
+      <c r="D54">
+        <v>42</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2837</v>
+      </c>
+      <c r="F54" s="6">
+        <v>-255</v>
+      </c>
+      <c r="G54" s="6">
+        <v>141</v>
+      </c>
+      <c r="H54" s="6">
+        <v>80026</v>
+      </c>
+      <c r="I54" s="6">
+        <v>2912</v>
+      </c>
+      <c r="J54" s="6">
+        <v>44462</v>
+      </c>
+      <c r="K54" s="6">
+        <v>7110</v>
+      </c>
+      <c r="L54" s="6">
+        <v>715</v>
+      </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" s="5">
         <v>43892</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="C55">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2742</v>
+      </c>
+      <c r="F55" s="6">
+        <v>-304</v>
+      </c>
+      <c r="G55" s="6">
+        <v>129</v>
+      </c>
+      <c r="H55" s="6">
+        <v>80151</v>
+      </c>
+      <c r="I55" s="6">
+        <v>2943</v>
+      </c>
+      <c r="J55" s="6">
+        <v>47204</v>
+      </c>
+      <c r="K55" s="6">
+        <v>6806</v>
+      </c>
+      <c r="L55" s="6">
+        <v>587</v>
+      </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="B56" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C56">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>38</v>
+      </c>
+      <c r="E56" s="6">
+        <v>2652</v>
+      </c>
+      <c r="F56" s="6">
+        <v>-390</v>
+      </c>
+      <c r="G56" s="6">
+        <v>143</v>
+      </c>
+      <c r="H56" s="6">
+        <v>80270</v>
+      </c>
+      <c r="I56" s="6">
+        <v>2981</v>
+      </c>
+      <c r="J56" s="6">
+        <v>49856</v>
+      </c>
+      <c r="K56" s="6">
+        <v>6416</v>
+      </c>
+      <c r="L56" s="6">
+        <v>520</v>
+      </c>
     </row>
     <row r="57" spans="2:12">
+      <c r="B57" s="5">
+        <v>43894</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -7527,6 +7899,9 @@
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="2:12">
+      <c r="B58" s="5">
+        <v>43895</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>

--- a/wuhan_nCoV_2020.xlsx
+++ b/wuhan_nCoV_2020.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/Coronavirus Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE0F2D-ED1B-AA43-99D8-0DE8A6CF23CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2256FA-3927-C143-8849-85A66B4E46A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wuhan" sheetId="1" r:id="rId1"/>
     <sheet name="hubei" sheetId="3" r:id="rId2"/>
     <sheet name="china" sheetId="4" r:id="rId3"/>
     <sheet name="说明" sheetId="2" r:id="rId4"/>
+    <sheet name="输入病例" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2063,7 +2064,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>新增病例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2291,6 +2292,29 @@
     <t>现有住院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>宁夏中卫市发现1例境外输入型新冠肺炎病例。（公开报道显示，目前我国首例公开通报的境外输入确诊病例，在2月26日。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市新增2例新冠肺炎确诊病例，均为境外输入病例</t>
+  </si>
+  <si>
+    <t>宁夏、北京、广东、浙江四地3月1日出现5例境外输入病例，分别来自伊朗、英国、意大利等地</t>
+  </si>
+  <si>
+    <t>浙江省新增新型冠状病毒肺炎确诊病例7例（均为丽水市青田县报告的意大利输入病例）</t>
+  </si>
+  <si>
+    <t>北京输入2例 （全国非湖北新增4例， 北京3，宁夏1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都输入1例</t>
+  </si>
+  <si>
+    <t>甘肃输入11例（伊朗到兰州）</t>
+  </si>
 </sst>
 </file>
 
@@ -2299,7 +2323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2405,6 +2429,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2435,7 +2485,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2453,6 +2503,18 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2736,13 +2798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4259,6 +4321,118 @@
       </c>
       <c r="B57" s="1">
         <v>43894</v>
+      </c>
+      <c r="C57">
+        <v>131</v>
+      </c>
+      <c r="D57">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>1426</v>
+      </c>
+      <c r="F57">
+        <v>49671</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2305</v>
+      </c>
+      <c r="H57" s="6">
+        <v>26316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C58">
+        <v>126</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>1038</v>
+      </c>
+      <c r="F58">
+        <v>49797</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2328</v>
+      </c>
+      <c r="H58" s="6">
+        <v>27354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C59">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>21</v>
+      </c>
+      <c r="E59">
+        <v>1157</v>
+      </c>
+      <c r="F59">
+        <v>49871</v>
+      </c>
+      <c r="G59" s="6">
+        <v>2349</v>
+      </c>
+      <c r="H59" s="6">
+        <v>28511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60">
+        <v>1259</v>
+      </c>
+      <c r="F60">
+        <v>49912</v>
+      </c>
+      <c r="G60" s="6">
+        <v>2370</v>
+      </c>
+      <c r="H60" s="6">
+        <v>29770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43899</v>
       </c>
     </row>
   </sheetData>
@@ -4272,11 +4446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="144" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5377,7 +5551,7 @@
         <v>1154</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G56" si="0">(O37+P37)-(O36+P36)</f>
+        <f t="shared" ref="G37:G60" si="0">(O37+P37)-(O36+P36)</f>
         <v>2194</v>
       </c>
       <c r="H37">
@@ -6232,6 +6406,40 @@
       <c r="B57" s="1">
         <v>43894</v>
       </c>
+      <c r="C57">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>1923</v>
+      </c>
+      <c r="F57">
+        <v>67</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>-444</v>
+      </c>
+      <c r="L57">
+        <v>67466</v>
+      </c>
+      <c r="M57">
+        <v>2902</v>
+      </c>
+      <c r="N57">
+        <v>40479</v>
+      </c>
+      <c r="O57">
+        <v>4747</v>
+      </c>
+      <c r="P57">
+        <v>1041</v>
+      </c>
+      <c r="Q57">
+        <v>20765</v>
+      </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58">
@@ -6240,6 +6448,40 @@
       <c r="B58" s="1">
         <v>43895</v>
       </c>
+      <c r="C58">
+        <v>126</v>
+      </c>
+      <c r="D58">
+        <v>29</v>
+      </c>
+      <c r="E58">
+        <v>1487</v>
+      </c>
+      <c r="F58">
+        <v>43</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+      <c r="L58">
+        <v>67592</v>
+      </c>
+      <c r="M58">
+        <v>2931</v>
+      </c>
+      <c r="N58">
+        <v>41966</v>
+      </c>
+      <c r="O58">
+        <v>4592</v>
+      </c>
+      <c r="P58">
+        <v>996</v>
+      </c>
+      <c r="Q58">
+        <v>19758</v>
+      </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59">
@@ -6248,6 +6490,40 @@
       <c r="B59" s="1">
         <v>43896</v>
       </c>
+      <c r="C59">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>1502</v>
+      </c>
+      <c r="F59">
+        <v>47</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>-229</v>
+      </c>
+      <c r="L59">
+        <v>67666</v>
+      </c>
+      <c r="M59">
+        <v>2959</v>
+      </c>
+      <c r="N59">
+        <v>43468</v>
+      </c>
+      <c r="O59">
+        <v>4395</v>
+      </c>
+      <c r="P59">
+        <v>964</v>
+      </c>
+      <c r="Q59">
+        <v>18518</v>
+      </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60">
@@ -6255,6 +6531,40 @@
       </c>
       <c r="B60" s="1">
         <v>43897</v>
+      </c>
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>1543</v>
+      </c>
+      <c r="F60">
+        <v>42</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>-219</v>
+      </c>
+      <c r="L60">
+        <v>67707</v>
+      </c>
+      <c r="M60">
+        <v>2986</v>
+      </c>
+      <c r="N60">
+        <v>45011</v>
+      </c>
+      <c r="O60">
+        <v>4206</v>
+      </c>
+      <c r="P60">
+        <v>934</v>
+      </c>
+      <c r="Q60">
+        <v>17078</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6300,11 +6610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L66"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7890,45 +8200,146 @@
       <c r="B57" s="5">
         <v>43894</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="C57">
+        <v>139</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2189</v>
+      </c>
+      <c r="F57" s="6">
+        <v>-464</v>
+      </c>
+      <c r="G57" s="6">
+        <v>143</v>
+      </c>
+      <c r="H57" s="6">
+        <v>80409</v>
+      </c>
+      <c r="I57" s="6">
+        <v>3012</v>
+      </c>
+      <c r="J57" s="6">
+        <v>52045</v>
+      </c>
+      <c r="K57" s="6">
+        <v>5952</v>
+      </c>
+      <c r="L57" s="6">
+        <v>522</v>
+      </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="5">
         <v>43895</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="C58">
+        <v>143</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1681</v>
+      </c>
+      <c r="F58" s="6">
+        <v>-215</v>
+      </c>
+      <c r="G58" s="6">
+        <v>102</v>
+      </c>
+      <c r="H58" s="6">
+        <v>80552</v>
+      </c>
+      <c r="I58" s="6">
+        <v>3042</v>
+      </c>
+      <c r="J58" s="6">
+        <v>53726</v>
+      </c>
+      <c r="K58" s="6">
+        <v>5737</v>
+      </c>
+      <c r="L58" s="6">
+        <v>482</v>
+      </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="B59" s="5">
+        <v>43896</v>
+      </c>
+      <c r="C59">
+        <v>99</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1678</v>
+      </c>
+      <c r="F59" s="6">
+        <v>-248</v>
+      </c>
+      <c r="G59" s="6">
+        <v>99</v>
+      </c>
+      <c r="H59" s="6">
+        <v>80651</v>
+      </c>
+      <c r="I59" s="6">
+        <v>3070</v>
+      </c>
+      <c r="J59" s="6">
+        <v>55404</v>
+      </c>
+      <c r="K59" s="6">
+        <v>5489</v>
+      </c>
+      <c r="L59" s="6">
+        <v>502</v>
+      </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="B60" s="5">
+        <v>43897</v>
+      </c>
+      <c r="C60">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1661</v>
+      </c>
+      <c r="F60" s="6">
+        <v>-225</v>
+      </c>
+      <c r="G60" s="6">
+        <v>84</v>
+      </c>
+      <c r="H60" s="6">
+        <v>80695</v>
+      </c>
+      <c r="I60" s="6">
+        <v>3097</v>
+      </c>
+      <c r="J60" s="6">
+        <v>57065</v>
+      </c>
+      <c r="K60" s="6">
+        <v>5264</v>
+      </c>
+      <c r="L60" s="6">
+        <v>458</v>
+      </c>
     </row>
     <row r="61" spans="2:12">
+      <c r="B61" s="5">
+        <v>43898</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -7938,6 +8349,9 @@
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:12">
+      <c r="B62" s="5">
+        <v>43899</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -7947,6 +8361,9 @@
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="2:12">
+      <c r="B63" s="5">
+        <v>43900</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -7956,6 +8373,9 @@
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="2:12">
+      <c r="B64" s="5">
+        <v>43901</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -7964,7 +8384,10 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="5:11">
+    <row r="65" spans="2:11">
+      <c r="B65" s="5">
+        <v>43902</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -7973,7 +8396,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="5:11">
+    <row r="66" spans="2:11">
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -8138,4 +8561,135 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>43899</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>